--- a/data/trans_orig/P15C-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P15C-Clase-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4188</v>
+        <v>4498</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08372170583715681</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3612127529237563</v>
+        <v>0.3879168272011534</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4267</v>
+        <v>4353</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1210907587765921</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5497555419122356</v>
+        <v>0.5609373002899929</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6157</v>
+        <v>5996</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09870470936087347</v>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3180957172481216</v>
+        <v>0.3097595265224271</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>3033</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>819</v>
+        <v>772</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6457</v>
+        <v>6735</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2615745261965118</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07066742321861791</v>
+        <v>0.06658197963888726</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5568999606593608</v>
+        <v>0.5808342342939384</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -849,19 +849,19 @@
         <v>3033</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>848</v>
+        <v>831</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>7582</v>
+        <v>7462</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1566970476564824</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04382103604170451</v>
+        <v>0.04294374664992646</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.391729837357268</v>
+        <v>0.385507505286106</v>
       </c>
     </row>
     <row r="6">
@@ -878,19 +878,19 @@
         <v>6642</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3042</v>
+        <v>3047</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9818</v>
+        <v>9725</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5728263684090767</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2623727390682477</v>
+        <v>0.2627847053686309</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.846740700001248</v>
+        <v>0.8387103013750978</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>4</v>
@@ -899,19 +899,19 @@
         <v>4852</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1291</v>
+        <v>1299</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>7663</v>
+        <v>6945</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6252119879552956</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1662900025386611</v>
+        <v>0.1673550239389685</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9873116082504099</v>
+        <v>0.8948322326040055</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>10</v>
@@ -920,19 +920,19 @@
         <v>11494</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>6458</v>
+        <v>6702</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>15494</v>
+        <v>15571</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5938302167946692</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3336195496174382</v>
+        <v>0.3462604600990451</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8004783813270315</v>
+        <v>0.8044743724279847</v>
       </c>
     </row>
     <row r="7">
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>4354</v>
+        <v>4442</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1263752304839248</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5609958082466791</v>
+        <v>0.5723331226173766</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1</v>
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>5108</v>
+        <v>5254</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05066974875493756</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2639115540235911</v>
+        <v>0.2714502175667513</v>
       </c>
     </row>
     <row r="8">
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4187</v>
+        <v>4225</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.08187739955725468</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3610708917643519</v>
+        <v>0.3643788992156057</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1</v>
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>4470</v>
+        <v>4435</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1273220227841874</v>
@@ -1045,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5759282763151328</v>
+        <v>0.571421643413255</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>5901</v>
+        <v>6009</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1000982774330373</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.304890830462337</v>
+        <v>0.3104307136312355</v>
       </c>
     </row>
     <row r="9">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>4449</v>
+        <v>4554</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1778786077353705</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7962002955808606</v>
+        <v>0.8149825002204824</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1</v>
@@ -1242,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>4920</v>
+        <v>4899</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.05267771034687339</v>
@@ -1251,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2607601810603449</v>
+        <v>0.2596248546861062</v>
       </c>
     </row>
     <row r="12">
@@ -1315,7 +1315,7 @@
         <v>11434</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8065</v>
+        <v>7838</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>13281</v>
@@ -1324,7 +1324,7 @@
         <v>0.8609304789786399</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6072928865165406</v>
+        <v>0.5901294112790457</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>1</v>
@@ -1336,7 +1336,7 @@
         <v>4594</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1139</v>
+        <v>1034</v>
       </c>
       <c r="M13" s="5" t="n">
         <v>5588</v>
@@ -1345,7 +1345,7 @@
         <v>0.8221213922646294</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2037997044191393</v>
+        <v>0.1850174997795176</v>
       </c>
       <c r="P13" s="6" t="n">
         <v>1</v>
@@ -1357,19 +1357,19 @@
         <v>16027</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>12033</v>
+        <v>11535</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>18044</v>
+        <v>18026</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.8494373947074344</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6377267267860721</v>
+        <v>0.6113738574345693</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.956352056183375</v>
+        <v>0.9553560253045209</v>
       </c>
     </row>
     <row r="14">
@@ -1389,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5201</v>
+        <v>4664</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.07266223836615188</v>
@@ -1398,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3915985689253547</v>
+        <v>0.3511496627465457</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5181</v>
+        <v>4319</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.05114374103508412</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2745750561614994</v>
+        <v>0.2289001608680272</v>
       </c>
     </row>
     <row r="15">
@@ -1452,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3900</v>
+        <v>4638</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.06640728265520816</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2936260819513671</v>
+        <v>0.349249406344591</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>0</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>3959</v>
+        <v>4524</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.04674115391060812</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2098237316861337</v>
+        <v>0.239790076585669</v>
       </c>
     </row>
     <row r="16">
@@ -1634,19 +1634,19 @@
         <v>7011</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2953</v>
+        <v>2865</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>12167</v>
+        <v>11848</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2478755932051299</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1044017053266031</v>
+        <v>0.1012796551065459</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4301609905194697</v>
+        <v>0.4188889580412369</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>0</v>
@@ -1668,19 +1668,19 @@
         <v>7011</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>2994</v>
+        <v>3043</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>12710</v>
+        <v>12557</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2109103604582138</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.09007713097705991</v>
+        <v>0.09153575805388756</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3823374246722017</v>
+        <v>0.3777300104139446</v>
       </c>
     </row>
     <row r="19">
@@ -1697,19 +1697,19 @@
         <v>2954</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>920</v>
+        <v>891</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7598</v>
+        <v>7798</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.104433601170769</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03254255513418574</v>
+        <v>0.03151839232072707</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2686214085871437</v>
+        <v>0.2757106677159592</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -1731,19 +1731,19 @@
         <v>2954</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>950</v>
+        <v>927</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>7350</v>
+        <v>7845</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08885960970206723</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0285685464441747</v>
+        <v>0.0278845302191464</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2211101635945137</v>
+        <v>0.2359906500615272</v>
       </c>
     </row>
     <row r="20">
@@ -1760,19 +1760,19 @@
         <v>8154</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3887</v>
+        <v>3892</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>13494</v>
+        <v>13680</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2882890011684178</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1374221427295023</v>
+        <v>0.1376157542727102</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4770842615363309</v>
+        <v>0.483634701413414</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>4092</v>
+        <v>4054</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3907647999571341</v>
@@ -1793,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.825478744368067</v>
+        <v>0.817739113474604</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>10</v>
@@ -1802,19 +1802,19 @@
         <v>10091</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5139</v>
+        <v>5390</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>15881</v>
+        <v>16151</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3035710291574189</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.154608592052899</v>
+        <v>0.1621397618391119</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4777453034202737</v>
+        <v>0.4858646626193048</v>
       </c>
     </row>
     <row r="21">
@@ -1831,19 +1831,19 @@
         <v>7301</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2909</v>
+        <v>2797</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>13547</v>
+        <v>13263</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2581146821848507</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.102858327460204</v>
+        <v>0.09888417958980701</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4789503713049167</v>
+        <v>0.4689233890198398</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>2</v>
@@ -1855,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>4162</v>
+        <v>4183</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4350448312821373</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.8396418767834725</v>
+        <v>0.8439113950122616</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>8</v>
@@ -1873,19 +1873,19 @@
         <v>9457</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>4629</v>
+        <v>4682</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>16038</v>
+        <v>15892</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2844999509269626</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.139258081493975</v>
+        <v>0.1408374953933766</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4824667045503253</v>
+        <v>0.4780606176698682</v>
       </c>
     </row>
     <row r="22">
@@ -1902,19 +1902,19 @@
         <v>2865</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>846</v>
+        <v>869</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>7372</v>
+        <v>7065</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1012871222708326</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02991486684466116</v>
+        <v>0.03071119428576986</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2606301733259199</v>
+        <v>0.2497964833902542</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>3935</v>
+        <v>3763</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1741903687607286</v>
@@ -1935,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7938904016093653</v>
+        <v>0.7592117056112893</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4</v>
@@ -1944,19 +1944,19 @@
         <v>3728</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>936</v>
+        <v>917</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>8551</v>
+        <v>7635</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1121590497553375</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02816235762769567</v>
+        <v>0.02758762847307846</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2572200954785161</v>
+        <v>0.2296820586992988</v>
       </c>
     </row>
     <row r="23">
@@ -2095,19 +2095,19 @@
         <v>5064</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1939</v>
+        <v>1891</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>11006</v>
+        <v>11129</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1297701470766894</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0496915992117548</v>
+        <v>0.04845828703457458</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2820443487022097</v>
+        <v>0.2851863553940846</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1</v>
@@ -2119,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>5816</v>
+        <v>3980</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03811452424763422</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2325553947382438</v>
+        <v>0.1591195444371706</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>6</v>
@@ -2137,19 +2137,19 @@
         <v>6017</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2243</v>
+        <v>2140</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>12291</v>
+        <v>12232</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.09397148090899816</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03503309946896956</v>
+        <v>0.0334196368221288</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1919451831128215</v>
+        <v>0.1910360884024017</v>
       </c>
     </row>
     <row r="26">
@@ -2166,19 +2166,19 @@
         <v>3276</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>981</v>
+        <v>990</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>8233</v>
+        <v>8684</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.08395485945030168</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02513157887613509</v>
+        <v>0.0253689750841299</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2109764254959366</v>
+        <v>0.2225315705846889</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2</v>
@@ -2190,7 +2190,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>6159</v>
+        <v>5294</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.08146340507109781</v>
@@ -2199,7 +2199,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2462477633425548</v>
+        <v>0.211665457213607</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5</v>
@@ -2208,19 +2208,19 @@
         <v>5313</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2070</v>
+        <v>2113</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>11018</v>
+        <v>11366</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.0829817522819668</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.03233173666294041</v>
+        <v>0.03300185365532824</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1720669780907157</v>
+        <v>0.1775097834122862</v>
       </c>
     </row>
     <row r="27">
@@ -2237,19 +2237,19 @@
         <v>15632</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>9741</v>
+        <v>9793</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>22220</v>
+        <v>22939</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.4005815190402489</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2496346038707197</v>
+        <v>0.2509663802927992</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5693956600243353</v>
+        <v>0.5878418559671844</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>14</v>
@@ -2258,19 +2258,19 @@
         <v>14446</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>9267</v>
+        <v>8652</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>19016</v>
+        <v>18816</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.5776127734329419</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.3705160658060725</v>
+        <v>0.3459359255390981</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.760326620405593</v>
+        <v>0.7523313730536818</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>29</v>
@@ -2279,19 +2279,19 @@
         <v>30077</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>22511</v>
+        <v>22061</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>37807</v>
+        <v>38515</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.4697260251996968</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.3515515413708824</v>
+        <v>0.3445289075617979</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.5904337088978268</v>
+        <v>0.6014926992857442</v>
       </c>
     </row>
     <row r="28">
@@ -2308,19 +2308,19 @@
         <v>11171</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>5980</v>
+        <v>6209</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>17404</v>
+        <v>18352</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.286278507203541</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1532409663938961</v>
+        <v>0.1591183222150003</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4459817660089131</v>
+        <v>0.4702909658141822</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>5</v>
@@ -2329,19 +2329,19 @@
         <v>5713</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2139</v>
+        <v>2114</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>11200</v>
+        <v>10977</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2284205784545091</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.08553430344120373</v>
+        <v>0.08450715759630135</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.447833701389114</v>
+        <v>0.4389208056249518</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>15</v>
@@ -2350,19 +2350,19 @@
         <v>16884</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>10692</v>
+        <v>9553</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>25446</v>
+        <v>24737</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2636804754351718</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1669730339013953</v>
+        <v>0.1491870878160034</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3974028227559803</v>
+        <v>0.3863211914738684</v>
       </c>
     </row>
     <row r="29">
@@ -2379,19 +2379,19 @@
         <v>2841</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>7433</v>
+        <v>7474</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.07280525520701901</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02187188290083244</v>
+        <v>0.02173716056626711</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1904799540171442</v>
+        <v>0.1915219628731746</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2</v>
@@ -2403,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>5762</v>
+        <v>6566</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.07438871879381694</v>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2303993214556396</v>
+        <v>0.2625212281288113</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5</v>
@@ -2421,19 +2421,19 @@
         <v>4701</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1748</v>
+        <v>1752</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>9667</v>
+        <v>10285</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.07342372118414948</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0273045933339343</v>
+        <v>0.02736546190682029</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1509763741474761</v>
+        <v>0.1606262681918078</v>
       </c>
     </row>
     <row r="30">
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4694</v>
+        <v>4301</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.02660971202220016</v>
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1202951019655782</v>
+        <v>0.1102084472859091</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>5664</v>
+        <v>5177</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.01621654499001708</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.08845681091929333</v>
+        <v>0.08085463155518784</v>
       </c>
     </row>
     <row r="31">
@@ -2591,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>4950</v>
+        <v>6051</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.0835294049260917</v>
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3915893944823852</v>
+        <v>0.4786929229183693</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>0</v>
@@ -2625,7 +2625,7 @@
         <v>0</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>5254</v>
+        <v>4782</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.03009225568003895</v>
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1497345583908589</v>
+        <v>0.1362881743566029</v>
       </c>
     </row>
     <row r="33">
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>8019</v>
+        <v>6890</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.217361272035108</v>
@@ -2663,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.6343516506805248</v>
+        <v>0.545065262039877</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>2</v>
@@ -2675,7 +2675,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>7087</v>
+        <v>7165</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.1098331324698031</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.315694605958512</v>
+        <v>0.3191632699024817</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>4</v>
@@ -2693,19 +2693,19 @@
         <v>5213</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>1594</v>
+        <v>1513</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>11223</v>
+        <v>11965</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1485711585752343</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.0454130180362692</v>
+        <v>0.0431139515970205</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.3198220551083755</v>
+        <v>0.3409667924762204</v>
       </c>
     </row>
     <row r="34">
@@ -2722,19 +2722,19 @@
         <v>3625</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>819</v>
+        <v>1024</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>7324</v>
+        <v>8008</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.286756702593224</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.06476003801142576</v>
+        <v>0.0810388033712834</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.5794193267991788</v>
+        <v>0.6335231805347049</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>14</v>
@@ -2743,19 +2743,19 @@
         <v>14396</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>9494</v>
+        <v>9517</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>18257</v>
+        <v>18578</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.6412902977104592</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.4229144704562817</v>
+        <v>0.4239764009262408</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.8132982787243633</v>
+        <v>0.82758289059584</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>19</v>
@@ -2764,19 +2764,19 @@
         <v>18021</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>12059</v>
+        <v>12437</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>24010</v>
+        <v>24463</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.5135662273561795</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.3436725589099198</v>
+        <v>0.354429809150505</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.6842315736201157</v>
+        <v>0.6971389656562442</v>
       </c>
     </row>
     <row r="35">
@@ -2793,19 +2793,19 @@
         <v>5213</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>2060</v>
+        <v>1638</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>9014</v>
+        <v>8562</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.4123526204455763</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1629948050725365</v>
+        <v>0.129607775863736</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.7130386568990913</v>
+        <v>0.6773359177038288</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>5</v>
@@ -2814,19 +2814,19 @@
         <v>4731</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>1761</v>
+        <v>1735</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>9056</v>
+        <v>9258</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2107567449055172</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.07844597247430214</v>
+        <v>0.07727087416680727</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.4034066282009884</v>
+        <v>0.4124050516196648</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>10</v>
@@ -2835,19 +2835,19 @@
         <v>9944</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>5361</v>
+        <v>4965</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>15831</v>
+        <v>16524</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2833835598117229</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1527783139117906</v>
+        <v>0.1414996313808448</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.4511584716339943</v>
+        <v>0.4709032780044542</v>
       </c>
     </row>
     <row r="36">
@@ -2880,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>5373</v>
+        <v>4287</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.03811982491422052</v>
@@ -2889,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.239348865384582</v>
+        <v>0.1909772942542725</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1</v>
@@ -2901,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>4455</v>
+        <v>3886</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.0243867985768244</v>
@@ -2910,7 +2910,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1269603988638379</v>
+        <v>0.1107493402217986</v>
       </c>
     </row>
     <row r="37">
@@ -3052,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>4737</v>
+        <v>5183</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.06043091586131361</v>
@@ -3061,7 +3061,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.292524651151265</v>
+        <v>0.3201006424454304</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>3</v>
@@ -3070,19 +3070,19 @@
         <v>2941</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>7937</v>
+        <v>7784</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.104893686635295</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.03292828398335938</v>
+        <v>0.03277906990588381</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.2830548343608802</v>
+        <v>0.2775846257363694</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>4</v>
@@ -3091,19 +3091,19 @@
         <v>3920</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>968</v>
+        <v>961</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>9268</v>
+        <v>8912</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.08861776423735782</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.02188566879666382</v>
+        <v>0.0217263952501721</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.2095165914541424</v>
+        <v>0.2014695144063866</v>
       </c>
     </row>
     <row r="40">
@@ -3167,19 +3167,19 @@
         <v>12507</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>8815</v>
+        <v>8624</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>15301</v>
+        <v>15290</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.7724040782908121</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.5443897491264741</v>
+        <v>0.532637092039715</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.9449605089229108</v>
+        <v>0.9442635392124618</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>20</v>
@@ -3188,19 +3188,19 @@
         <v>21179</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>15992</v>
+        <v>16051</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>25119</v>
+        <v>25059</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.7552471198939025</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.5703028469325673</v>
+        <v>0.5724019627530461</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.8957737628986292</v>
+        <v>0.8936367408367869</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>32</v>
@@ -3209,19 +3209,19 @@
         <v>33685</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>26674</v>
+        <v>27417</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>38466</v>
+        <v>38454</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.7615275499838812</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.6030206017910454</v>
+        <v>0.6198121550729396</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.8696091108964391</v>
+        <v>0.8693375952007059</v>
       </c>
     </row>
     <row r="42">
@@ -3238,19 +3238,19 @@
         <v>2707</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>777</v>
+        <v>789</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>6957</v>
+        <v>6884</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1671650058478742</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.04799071464938939</v>
+        <v>0.04869846795970848</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.429671295968846</v>
+        <v>0.425160046356496</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>4</v>
@@ -3259,19 +3259,19 @@
         <v>3922</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>972</v>
+        <v>1025</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>8675</v>
+        <v>9162</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1398591934708025</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.03466870466870484</v>
+        <v>0.03653952692734852</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3093714916688438</v>
+        <v>0.3267264829763461</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>7</v>
@@ -3280,19 +3280,19 @@
         <v>6629</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>2918</v>
+        <v>2879</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>13004</v>
+        <v>13198</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.149854685778761</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.06596510189203632</v>
+        <v>0.06508822281172889</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2939708626781901</v>
+        <v>0.2983735589121624</v>
       </c>
     </row>
     <row r="43">
@@ -3478,19 +3478,19 @@
         <v>15080</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>8921</v>
+        <v>8928</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>24122</v>
+        <v>24075</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.1246130069713242</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.07371360950252236</v>
+        <v>0.07377422859098336</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1993290502980129</v>
+        <v>0.1989349693576091</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>6</v>
@@ -3499,19 +3499,19 @@
         <v>5828</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>2101</v>
+        <v>2019</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>11694</v>
+        <v>11776</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.06213210892109747</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.02239644066177822</v>
+        <v>0.02152475055651809</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.1246663957739579</v>
+        <v>0.1255337103114302</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>21</v>
@@ -3520,19 +3520,19 @@
         <v>20909</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>13490</v>
+        <v>13528</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>30196</v>
+        <v>29415</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.09732971854890862</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.0627976959409652</v>
+        <v>0.06297119173131357</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.1405604868109683</v>
+        <v>0.136927104803527</v>
       </c>
     </row>
     <row r="47">
@@ -3549,19 +3549,19 @@
         <v>12011</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>6981</v>
+        <v>6319</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>20699</v>
+        <v>20530</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.09924850502272399</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.05768440762898011</v>
+        <v>0.05221588667681899</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.171044405118193</v>
+        <v>0.1696427988370462</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>4</v>
@@ -3570,19 +3570,19 @@
         <v>4503</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>10998</v>
+        <v>11001</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.04800283007643459</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.01217789423649574</v>
+        <v>0.01216080153899849</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.1172441916030328</v>
+        <v>0.1172759031165538</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>15</v>
@@ -3591,19 +3591,19 @@
         <v>16514</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>9773</v>
+        <v>9686</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>26145</v>
+        <v>25831</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.0768712573583733</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.04549550498389544</v>
+        <v>0.0450878643335901</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.1217033421777192</v>
+        <v>0.1202426788587264</v>
       </c>
     </row>
     <row r="48">
@@ -3620,19 +3620,19 @@
         <v>57994</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>47669</v>
+        <v>47035</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>69930</v>
+        <v>69244</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.4792195301637978</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.3939055236140228</v>
+        <v>0.3886680547942701</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.577853229492253</v>
+        <v>0.5721814165572221</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>58</v>
@@ -3641,19 +3641,19 @@
         <v>61404</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>52828</v>
+        <v>51446</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>70419</v>
+        <v>69501</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.654581253473637</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.5631584684405249</v>
+        <v>0.5484329768786816</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.7506849732395363</v>
+        <v>0.7409002054752515</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>115</v>
@@ -3662,19 +3662,19 @@
         <v>119397</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>104050</v>
+        <v>104940</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>134518</v>
+        <v>134194</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.5557940453295064</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.4843539917154574</v>
+        <v>0.488493250539154</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.6261806253880249</v>
+        <v>0.6246735226073268</v>
       </c>
     </row>
     <row r="49">
@@ -3691,19 +3691,19 @@
         <v>27357</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>18758</v>
+        <v>17752</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>38340</v>
+        <v>36737</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.226055926058632</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.1550041813208822</v>
+        <v>0.1466877568957119</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.3168174089425133</v>
+        <v>0.3035680499472623</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>17</v>
@@ -3712,19 +3712,19 @@
         <v>17503</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>10599</v>
+        <v>11318</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>25786</v>
+        <v>26918</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.1865898717543505</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.1129874335209654</v>
+        <v>0.1206578380883843</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.2748902005865988</v>
+        <v>0.2869581366620914</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>42</v>
@@ -3733,19 +3733,19 @@
         <v>44860</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>33992</v>
+        <v>33371</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>57392</v>
+        <v>57321</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.2088224390877365</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.1582335099975775</v>
+        <v>0.155339872479146</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.2671580892503084</v>
+        <v>0.2668269017464992</v>
       </c>
     </row>
     <row r="50">
@@ -3762,19 +3762,19 @@
         <v>7537</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>3776</v>
+        <v>3613</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>13916</v>
+        <v>14046</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.06228254095241837</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.03120144739056968</v>
+        <v>0.02985482793366933</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1149894856581539</v>
+        <v>0.1160703295446605</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>5</v>
@@ -3783,19 +3783,19 @@
         <v>4568</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>1704</v>
+        <v>1821</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>9995</v>
+        <v>10525</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.04869393577448047</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.01817023005640164</v>
+        <v>0.01940929790329244</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.1065512123942811</v>
+        <v>0.1121953860938751</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>13</v>
@@ -3804,19 +3804,19 @@
         <v>12105</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>7162</v>
+        <v>6125</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>20408</v>
+        <v>18544</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.05634885808457642</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.03333788280773139</v>
+        <v>0.02851244039646945</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.09500063410013257</v>
+        <v>0.08632299320581371</v>
       </c>
     </row>
     <row r="51">
@@ -3836,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>5610</v>
+        <v>5238</v>
       </c>
       <c r="G51" s="6" t="n">
         <v>0.008580490831103668</v>
@@ -3845,7 +3845,7 @@
         <v>0</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.04635608332539033</v>
+        <v>0.04328658612897748</v>
       </c>
       <c r="J51" s="5" t="n">
         <v>0</v>
@@ -3870,7 +3870,7 @@
         <v>0</v>
       </c>
       <c r="T51" s="5" t="n">
-        <v>5182</v>
+        <v>4781</v>
       </c>
       <c r="U51" s="6" t="n">
         <v>0.004833681590898706</v>
@@ -3879,7 +3879,7 @@
         <v>0</v>
       </c>
       <c r="W51" s="6" t="n">
-        <v>0.02412269016147948</v>
+        <v>0.0222532186398658</v>
       </c>
     </row>
     <row r="52">
@@ -4216,7 +4216,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5046</v>
+        <v>6379</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03196223988032811</v>
@@ -4225,7 +4225,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1485844845213003</v>
+        <v>0.1878246180454443</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -4237,7 +4237,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7086</v>
+        <v>7305</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1038706014870397</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4089185060459517</v>
+        <v>0.4215196032122208</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -4258,7 +4258,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>9129</v>
+        <v>10506</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05625734521899266</v>
@@ -4267,7 +4267,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1779865019101014</v>
+        <v>0.204837385613949</v>
       </c>
     </row>
     <row r="5">
@@ -4287,7 +4287,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5037</v>
+        <v>5034</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02954614482653833</v>
@@ -4296,7 +4296,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1483045509140675</v>
+        <v>0.1482125979923017</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -4308,7 +4308,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>4977</v>
+        <v>5858</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05852348425599813</v>
@@ -4317,7 +4317,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2872163788811448</v>
+        <v>0.3380675255846425</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2</v>
@@ -4329,7 +4329,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>7067</v>
+        <v>7417</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03933648767600265</v>
@@ -4338,7 +4338,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1377776466002419</v>
+        <v>0.1446058520945454</v>
       </c>
     </row>
     <row r="6">
@@ -4355,19 +4355,19 @@
         <v>23518</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16648</v>
+        <v>16636</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>28648</v>
+        <v>28932</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.6924928425307376</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4901807480970836</v>
+        <v>0.4898454337165372</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8435232675698845</v>
+        <v>0.8518910377289094</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>11</v>
@@ -4376,19 +4376,19 @@
         <v>12706</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>7598</v>
+        <v>7393</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>16249</v>
+        <v>17329</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.7332323142752797</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4384643219848993</v>
+        <v>0.4266466600892727</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9376862009295219</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>31</v>
@@ -4397,19 +4397,19 @@
         <v>36225</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>27559</v>
+        <v>27008</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>42783</v>
+        <v>42862</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.7062571633323789</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5373115914140899</v>
+        <v>0.5265733987934584</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8341137567483021</v>
+        <v>0.8356583474318005</v>
       </c>
     </row>
     <row r="7">
@@ -4426,19 +4426,19 @@
         <v>7344</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2914</v>
+        <v>3042</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14115</v>
+        <v>14346</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2162512543324906</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08579510892414574</v>
+        <v>0.08955912070763002</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4156161080048132</v>
+        <v>0.4224131254820386</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -4460,19 +4460,19 @@
         <v>7344</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3225</v>
+        <v>3033</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>16068</v>
+        <v>15081</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1431881656146435</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06287096522447895</v>
+        <v>0.05913902500541832</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3132633238983187</v>
+        <v>0.294030809610799</v>
       </c>
     </row>
     <row r="8">
@@ -4505,7 +4505,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>7391</v>
+        <v>7052</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1043735999816825</v>
@@ -4514,7 +4514,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4265256145213962</v>
+        <v>0.4069607915827941</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>8601</v>
+        <v>7336</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.0352638768214396</v>
@@ -4535,7 +4535,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1676826210005953</v>
+        <v>0.1430243049139305</v>
       </c>
     </row>
     <row r="9">
@@ -4555,7 +4555,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6022</v>
+        <v>5752</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02974751842990534</v>
@@ -4564,7 +4564,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1773108355943248</v>
+        <v>0.169365641485365</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>0</v>
@@ -4589,7 +4589,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>5511</v>
+        <v>5468</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01969696133654278</v>
@@ -4598,7 +4598,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1074442192930029</v>
+        <v>0.1066139888127486</v>
       </c>
     </row>
     <row r="10">
@@ -4690,19 +4690,19 @@
         <v>5715</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1886</v>
+        <v>1893</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>11106</v>
+        <v>11594</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1761483411162241</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.05813544754845455</v>
+        <v>0.05834234067688603</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3422933903435558</v>
+        <v>0.3573255460102951</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -4714,7 +4714,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6636</v>
+        <v>6342</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.07473847096446298</v>
@@ -4723,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.247087444289022</v>
+        <v>0.2361716284463369</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>7</v>
@@ -4732,19 +4732,19 @@
         <v>7723</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>3218</v>
+        <v>2939</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>15400</v>
+        <v>14597</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1302238436816916</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.05426168575226799</v>
+        <v>0.04955925942050592</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2596908232236</v>
+        <v>0.2461514040042477</v>
       </c>
     </row>
     <row r="12">
@@ -4764,7 +4764,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4787</v>
+        <v>4729</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.0286593503268778</v>
@@ -4773,7 +4773,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1475357017343775</v>
+        <v>0.1457506598237232</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1</v>
@@ -4785,7 +4785,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>5225</v>
+        <v>5164</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03919741138605706</v>
@@ -4794,7 +4794,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1945480146758861</v>
+        <v>0.192303237270791</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>6714</v>
+        <v>6670</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03343161911445221</v>
@@ -4815,7 +4815,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1132103585075975</v>
+        <v>0.1124768106628213</v>
       </c>
     </row>
     <row r="13">
@@ -4832,19 +4832,19 @@
         <v>20906</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>15324</v>
+        <v>15116</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>25745</v>
+        <v>25876</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6443328823179088</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4722879007145219</v>
+        <v>0.4658946350263284</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7934779761810123</v>
+        <v>0.7975014349995649</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>16</v>
@@ -4853,19 +4853,19 @@
         <v>18621</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>13056</v>
+        <v>12958</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>22859</v>
+        <v>23045</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6933755308023796</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4861765772605212</v>
+        <v>0.4825245303791702</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.851201570308274</v>
+        <v>0.8581126990700222</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>37</v>
@@ -4874,19 +4874,19 @@
         <v>39527</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>31514</v>
+        <v>31617</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>46255</v>
+        <v>46973</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6665423475419272</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5314107167757514</v>
+        <v>0.5331449053823484</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7799939147593634</v>
+        <v>0.792102191947615</v>
       </c>
     </row>
     <row r="14">
@@ -4903,19 +4903,19 @@
         <v>2864</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>906</v>
+        <v>892</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7036</v>
+        <v>7080</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.08825823224042915</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02790932365750562</v>
+        <v>0.0274795815787791</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.216848830513515</v>
+        <v>0.2181991872896286</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2</v>
@@ -4927,7 +4927,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7206</v>
+        <v>7007</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.08270448992120114</v>
@@ -4936,7 +4936,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2683192282694011</v>
+        <v>0.2609020664485507</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5</v>
@@ -4945,19 +4945,19 @@
         <v>5085</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1905</v>
+        <v>1936</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>10484</v>
+        <v>10419</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.08574316319922289</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0321287691170568</v>
+        <v>0.03265262536806834</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1767878486542123</v>
+        <v>0.1756930258803399</v>
       </c>
     </row>
     <row r="15">
@@ -4977,7 +4977,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7083</v>
+        <v>6385</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.06260119399856018</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2182902762255418</v>
+        <v>0.196782501526235</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>3</v>
@@ -4995,19 +4995,19 @@
         <v>2954</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>904</v>
+        <v>921</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>7523</v>
+        <v>7492</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1099840969258992</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.03367114059760421</v>
+        <v>0.03429774411914199</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2801156441747031</v>
+        <v>0.2789896365884589</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>5</v>
@@ -5016,19 +5016,19 @@
         <v>4985</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>10218</v>
+        <v>10847</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.0840590264627061</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.03273762598156291</v>
+        <v>0.03271005885314985</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1723123614264752</v>
+        <v>0.1829077977667475</v>
       </c>
     </row>
     <row r="16">
@@ -5170,7 +5170,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6134</v>
+        <v>6294</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03454857893485039</v>
@@ -5179,7 +5179,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1041722548962645</v>
+        <v>0.106883770306525</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>2</v>
@@ -5191,7 +5191,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>5987</v>
+        <v>5921</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1305545322565429</v>
@@ -5200,7 +5200,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3987599972833607</v>
+        <v>0.3944092518395936</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>4</v>
@@ -5209,19 +5209,19 @@
         <v>3994</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1018</v>
+        <v>998</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>9537</v>
+        <v>9421</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.05405372365004524</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01377064939212508</v>
+        <v>0.01351027417429048</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1290548227920493</v>
+        <v>0.1274883839455322</v>
       </c>
     </row>
     <row r="19">
@@ -5238,19 +5238,19 @@
         <v>6377</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2073</v>
+        <v>2002</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>14852</v>
+        <v>13288</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1083059182155162</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03521259436505447</v>
+        <v>0.033992598298496</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2522327231289274</v>
+        <v>0.225665276919946</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -5262,7 +5262,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5537</v>
+        <v>6258</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1370012123679459</v>
@@ -5271,7 +5271,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3688185267845807</v>
+        <v>0.4168546295348287</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>7</v>
@@ -5280,19 +5280,19 @@
         <v>8434</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>3879</v>
+        <v>3842</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>16967</v>
+        <v>16136</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1141358261089651</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05249763251861851</v>
+        <v>0.0519878514172293</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2296032764299923</v>
+        <v>0.2183607417734734</v>
       </c>
     </row>
     <row r="20">
@@ -5309,19 +5309,19 @@
         <v>41862</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>33828</v>
+        <v>33848</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>48961</v>
+        <v>48657</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7109387614994173</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5744933368741793</v>
+        <v>0.574842049144726</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8314890582299671</v>
+        <v>0.8263335393486014</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>6</v>
@@ -5330,19 +5330,19 @@
         <v>6809</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3081</v>
+        <v>3111</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>10869</v>
+        <v>10991</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4535226044532848</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2052288988007861</v>
+        <v>0.2072238553829045</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7239837774434827</v>
+        <v>0.7321113978515078</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>43</v>
@@ -5351,19 +5351,19 @@
         <v>48672</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>38828</v>
+        <v>39331</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>56182</v>
+        <v>56119</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6586405526749063</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.525438450926593</v>
+        <v>0.5322438914216011</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7602799188171988</v>
+        <v>0.7594224557854001</v>
       </c>
     </row>
     <row r="21">
@@ -5380,19 +5380,19 @@
         <v>6759</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2974</v>
+        <v>2976</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>12603</v>
+        <v>12135</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1147880148739091</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.05050434132678078</v>
+        <v>0.05053971968739169</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2140391834727146</v>
+        <v>0.2060863550077294</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>4</v>
@@ -5401,19 +5401,19 @@
         <v>4187</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1037</v>
+        <v>1043</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>8602</v>
+        <v>8595</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2789216509222263</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.06910162045158307</v>
+        <v>0.06950087243213791</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5729965474968912</v>
+        <v>0.5725282000340916</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>11</v>
@@ -5422,19 +5422,19 @@
         <v>10947</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>6016</v>
+        <v>5959</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>19433</v>
+        <v>17839</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1481343878121192</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.0814151579152757</v>
+        <v>0.08063573650871016</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2629756923710204</v>
+        <v>0.2414019440545939</v>
       </c>
     </row>
     <row r="22">
@@ -5454,7 +5454,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>6251</v>
+        <v>6616</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03141872647630706</v>
@@ -5463,7 +5463,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1061649862028801</v>
+        <v>0.1123656216372294</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>0</v>
@@ -5488,7 +5488,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>6977</v>
+        <v>5561</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02503550975396423</v>
@@ -5497,7 +5497,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09441800236411488</v>
+        <v>0.07525192525936733</v>
       </c>
     </row>
     <row r="23">
@@ -5636,19 +5636,19 @@
         <v>6552</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2810</v>
+        <v>2811</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>12986</v>
+        <v>12378</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06987135956387841</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02996580231619334</v>
+        <v>0.02998012214145232</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1384945484928277</v>
+        <v>0.1320045376596654</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>7</v>
@@ -5657,19 +5657,19 @@
         <v>7090</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3005</v>
+        <v>3037</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>13330</v>
+        <v>13551</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.14564650864212</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0617380366784329</v>
+        <v>0.06239809331921475</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2738357746667941</v>
+        <v>0.2783831748065893</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>14</v>
@@ -5678,19 +5678,19 @@
         <v>13641</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>7838</v>
+        <v>8175</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>20808</v>
+        <v>22260</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.09576678658549878</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05502359770114713</v>
+        <v>0.05738986668289051</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1460741501278762</v>
+        <v>0.156268134289147</v>
       </c>
     </row>
     <row r="26">
@@ -5707,19 +5707,19 @@
         <v>8804</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>4203</v>
+        <v>4551</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>15597</v>
+        <v>15822</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.09389197967308306</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.04481948600072148</v>
+        <v>0.04854069931167713</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1663369045289149</v>
+        <v>0.1687353446259608</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>6</v>
@@ -5728,19 +5728,19 @@
         <v>6110</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2902</v>
+        <v>2110</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>11963</v>
+        <v>12048</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1255137724263495</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.05961143825430565</v>
+        <v>0.04334157355744096</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2457596898424818</v>
+        <v>0.2475069781313236</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>15</v>
@@ -5749,19 +5749,19 @@
         <v>14914</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>8663</v>
+        <v>8575</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>24274</v>
+        <v>23171</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.104698422636191</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.06081990237419053</v>
+        <v>0.06019887151745542</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1704065133222669</v>
+        <v>0.1626671691298541</v>
       </c>
     </row>
     <row r="27">
@@ -5778,19 +5778,19 @@
         <v>58993</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>48692</v>
+        <v>49395</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>67485</v>
+        <v>67822</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.6291463750502555</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.5192897457718406</v>
+        <v>0.5267864353672118</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7197142011845254</v>
+        <v>0.7233101092900912</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>24</v>
@@ -5799,19 +5799,19 @@
         <v>25074</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>17735</v>
+        <v>18311</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>32054</v>
+        <v>32108</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.5150914468311213</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.3643211673547281</v>
+        <v>0.3761670094804796</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.6584689973461134</v>
+        <v>0.6595932304907974</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>82</v>
@@ -5820,19 +5820,19 @@
         <v>84067</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>71849</v>
+        <v>72858</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>95554</v>
+        <v>94627</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.5901692023744868</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.504395923361657</v>
+        <v>0.5114827256347785</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.6708155739247149</v>
+        <v>0.6643030037925054</v>
       </c>
     </row>
     <row r="28">
@@ -5849,19 +5849,19 @@
         <v>14382</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>8250</v>
+        <v>8500</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>23181</v>
+        <v>22025</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1533846465807265</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.08798988319769875</v>
+        <v>0.09064589489118112</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2472202503039195</v>
+        <v>0.2348927682666851</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>4</v>
@@ -5870,19 +5870,19 @@
         <v>4442</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1128</v>
+        <v>1094</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>10364</v>
+        <v>9781</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.09124602028356345</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02316565728240977</v>
+        <v>0.0224811369137465</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2129137374834128</v>
+        <v>0.2009318249298185</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>19</v>
@@ -5891,19 +5891,19 @@
         <v>18824</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>11962</v>
+        <v>12072</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>26655</v>
+        <v>28249</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1321493698168307</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.08397824501052648</v>
+        <v>0.08474907520380769</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1871222750404799</v>
+        <v>0.1983168639452643</v>
       </c>
     </row>
     <row r="29">
@@ -5920,19 +5920,19 @@
         <v>5036</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1908</v>
+        <v>2007</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>10935</v>
+        <v>12274</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.05370563913205649</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02035289228159256</v>
+        <v>0.02140336474545726</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1166153533123369</v>
+        <v>0.1309043212185026</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>6</v>
@@ -5941,19 +5941,19 @@
         <v>5963</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2826</v>
+        <v>1980</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>11780</v>
+        <v>11276</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1225022518168457</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.0580556377998357</v>
+        <v>0.04068115843052268</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.242000595676816</v>
+        <v>0.2316501435142959</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>11</v>
@@ -5962,19 +5962,19 @@
         <v>10999</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5974</v>
+        <v>5839</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>18774</v>
+        <v>18050</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.07721621858699278</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0419387479501893</v>
+        <v>0.04099353478083834</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1317965872017248</v>
+        <v>0.126712252318512</v>
       </c>
     </row>
     <row r="30">
@@ -6116,7 +6116,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>5778</v>
+        <v>5803</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.04836498971379884</v>
@@ -6125,7 +6125,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1509636786167587</v>
+        <v>0.1516107572082313</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2</v>
@@ -6137,7 +6137,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>7352</v>
+        <v>7427</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.03989070735942107</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1285784066399802</v>
+        <v>0.129885446172005</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>4</v>
@@ -6155,19 +6155,19 @@
         <v>4132</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1116</v>
+        <v>1105</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>9773</v>
+        <v>10052</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.04328872755750424</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.0116880391318157</v>
+        <v>0.01157170890987466</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.10238189271784</v>
+        <v>0.1053020234035867</v>
       </c>
     </row>
     <row r="33">
@@ -6184,19 +6184,19 @@
         <v>2766</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>840</v>
+        <v>854</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>6959</v>
+        <v>7819</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.07225213318010258</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.02194839717187174</v>
+        <v>0.02232266421013154</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1818042161932209</v>
+        <v>0.2042799178541106</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>3</v>
@@ -6205,19 +6205,19 @@
         <v>3073</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>944</v>
+        <v>0</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>8225</v>
+        <v>7901</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.05373201915212929</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.01650808953549713</v>
+        <v>0</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1438468841912126</v>
+        <v>0.1381737240322354</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>6</v>
@@ -6226,19 +6226,19 @@
         <v>5838</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>2026</v>
+        <v>2711</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>11089</v>
+        <v>12521</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.06115821985045113</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.02121900697226355</v>
+        <v>0.02840154947870029</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1161636617798309</v>
+        <v>0.1311714232634033</v>
       </c>
     </row>
     <row r="34">
@@ -6255,19 +6255,19 @@
         <v>18224</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>11858</v>
+        <v>11569</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>24298</v>
+        <v>23470</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.4761109669864005</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.3097859110847968</v>
+        <v>0.3022562165280742</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.6347878983103092</v>
+        <v>0.6131554611872629</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>25</v>
@@ -6276,19 +6276,19 @@
         <v>26023</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>18525</v>
+        <v>18880</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>33672</v>
+        <v>34678</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.4550951747104771</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.3239691057606048</v>
+        <v>0.3301761216803296</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.5888497780598045</v>
+        <v>0.6064441347726458</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>43</v>
@@ -6297,19 +6297,19 @@
         <v>44247</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>35546</v>
+        <v>34296</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>55374</v>
+        <v>53826</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.4635220931970221</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.3723672048408639</v>
+        <v>0.3592723282086648</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.5800811603001751</v>
+        <v>0.5638613269902913</v>
       </c>
     </row>
     <row r="35">
@@ -6326,19 +6326,19 @@
         <v>6650</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>2263</v>
+        <v>2606</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>13124</v>
+        <v>14019</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1737437765766621</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.05912600213722531</v>
+        <v>0.06807582420521445</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3428688436413967</v>
+        <v>0.366244476934004</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>16</v>
@@ -6347,19 +6347,19 @@
         <v>17117</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>10600</v>
+        <v>10739</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>24829</v>
+        <v>24708</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2993461769142857</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1853677689600738</v>
+        <v>0.1877995762233172</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.4342016295320212</v>
+        <v>0.4320866153276618</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>21</v>
@@ -6368,19 +6368,19 @@
         <v>23768</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>15389</v>
+        <v>14806</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>32501</v>
+        <v>32723</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2489820899713375</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1612070420659945</v>
+        <v>0.155099698578635</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3404682963834206</v>
+        <v>0.3427941197837912</v>
       </c>
     </row>
     <row r="36">
@@ -6397,19 +6397,19 @@
         <v>8786</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>4279</v>
+        <v>4277</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>15147</v>
+        <v>15250</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.229528133543036</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1118028308098274</v>
+        <v>0.1117321500951588</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3957202698652434</v>
+        <v>0.3984116516053311</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>8</v>
@@ -6418,19 +6418,19 @@
         <v>8688</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>4343</v>
+        <v>4333</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>16042</v>
+        <v>16034</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1519359218636869</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.07595438355467933</v>
+        <v>0.07577604339113821</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2805387833510084</v>
+        <v>0.2804086052953854</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>16</v>
@@ -6439,19 +6439,19 @@
         <v>17474</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>10148</v>
+        <v>10575</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>25521</v>
+        <v>25979</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.183048869423685</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1063072504960706</v>
+        <v>0.1107761250368745</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.267354853294569</v>
+        <v>0.2721517794195748</v>
       </c>
     </row>
     <row r="37">
@@ -6606,7 +6606,7 @@
         <v>0</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>6512</v>
+        <v>5601</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.0202887548250027</v>
@@ -6615,7 +6615,7 @@
         <v>0</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.07209154571313917</v>
+        <v>0.06200504265076265</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>2</v>
@@ -6627,7 +6627,7 @@
         <v>0</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>5642</v>
+        <v>6398</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.01564297206966815</v>
@@ -6636,7 +6636,7 @@
         <v>0</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.04816063286077209</v>
+        <v>0.05460998979916264</v>
       </c>
     </row>
     <row r="40">
@@ -6656,7 +6656,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>5415</v>
+        <v>4802</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.03595135318399238</v>
@@ -6665,7 +6665,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2018466143853871</v>
+        <v>0.1790272582130159</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>3</v>
@@ -6674,19 +6674,19 @@
         <v>3075</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>941</v>
+        <v>952</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>8079</v>
+        <v>8484</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.0340491440944829</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.01041470409490868</v>
+        <v>0.01053809062119101</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.08944358115611646</v>
+        <v>0.09392901521866845</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>4</v>
@@ -6695,19 +6695,19 @@
         <v>4040</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>1008</v>
+        <v>1122</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>10083</v>
+        <v>9175</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.03448471790181155</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.008600805531088596</v>
+        <v>0.009573655378817554</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.08607205899654492</v>
+        <v>0.07832041131165436</v>
       </c>
     </row>
     <row r="41">
@@ -6724,19 +6724,19 @@
         <v>23942</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>19993</v>
+        <v>19219</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>25881</v>
+        <v>25875</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.8925219818210607</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.7453099792886541</v>
+        <v>0.7164536019450686</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.9647960869444396</v>
+        <v>0.9645910243477207</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>50</v>
@@ -6745,19 +6745,19 @@
         <v>52332</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>42796</v>
+        <v>42835</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>61175</v>
+        <v>60994</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.5793738565859003</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.4737953953593513</v>
+        <v>0.4742266525358241</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.6772760018360909</v>
+        <v>0.6752779849534354</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>75</v>
@@ -6766,19 +6766,19 @@
         <v>76274</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>66612</v>
+        <v>66060</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>86255</v>
+        <v>85654</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.651079497106038</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.5686081398494296</v>
+        <v>0.5638938837817995</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.7362778098866363</v>
+        <v>0.7311472194761245</v>
       </c>
     </row>
     <row r="42">
@@ -6798,7 +6798,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>5857</v>
+        <v>5831</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.07152666499494696</v>
@@ -6807,7 +6807,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.218325043427274</v>
+        <v>0.2173704535913566</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>10</v>
@@ -6816,19 +6816,19 @@
         <v>10225</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>5141</v>
+        <v>5234</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>17614</v>
+        <v>17630</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1132034930944337</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.05692152010120497</v>
+        <v>0.05794184557706792</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1950090749461579</v>
+        <v>0.1951873887070218</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>12</v>
@@ -6837,19 +6837,19 @@
         <v>12144</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>7008</v>
+        <v>6144</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>20118</v>
+        <v>19231</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1036602021950322</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.0598224647827673</v>
+        <v>0.05244763875019888</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1717268143150355</v>
+        <v>0.1641572901786101</v>
       </c>
     </row>
     <row r="43">
@@ -6879,19 +6879,19 @@
         <v>22860</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>14938</v>
+        <v>15676</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>32086</v>
+        <v>32896</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.2530847514001803</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1653816091679712</v>
+        <v>0.173551927457271</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.3552281609040255</v>
+        <v>0.364194823055385</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>21</v>
@@ -6900,19 +6900,19 @@
         <v>22860</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>13908</v>
+        <v>15169</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>31422</v>
+        <v>32638</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1951326107274502</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1187195133906728</v>
+        <v>0.129480689774792</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.2682165862245254</v>
+        <v>0.2786006401200098</v>
       </c>
     </row>
     <row r="44">
@@ -7051,19 +7051,19 @@
         <v>17238</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>10465</v>
+        <v>10304</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>26272</v>
+        <v>27007</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.0606630445832507</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.03682873165897884</v>
+        <v>0.03626061838826423</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.09245553000846606</v>
+        <v>0.09504051074436011</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>16</v>
@@ -7072,19 +7072,19 @@
         <v>16971</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>10201</v>
+        <v>10168</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>27756</v>
+        <v>26163</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.06645196351331892</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.0399436513776459</v>
+        <v>0.0398140732805715</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.1086847052253513</v>
+        <v>0.1024446846185351</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>33</v>
@@ -7093,19 +7093,19 @@
         <v>34209</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>24427</v>
+        <v>23669</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>47489</v>
+        <v>48660</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.06340313028206916</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.04527355704957237</v>
+        <v>0.04386863918185482</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.08801696082969898</v>
+        <v>0.09018675825163162</v>
       </c>
     </row>
     <row r="47">
@@ -7122,19 +7122,19 @@
         <v>20845</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>13770</v>
+        <v>12558</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>31707</v>
+        <v>30600</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.07335524578494225</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.04845732104711618</v>
+        <v>0.0441927944249738</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.1115804871226012</v>
+        <v>0.1076869520070118</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>16</v>
@@ -7143,19 +7143,19 @@
         <v>16382</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>10046</v>
+        <v>9203</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>25786</v>
+        <v>24613</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.06414488506262318</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.03933680361977451</v>
+        <v>0.03603659558888422</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.1009697267448279</v>
+        <v>0.09637448432357262</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>36</v>
@@ -7164,19 +7164,19 @@
         <v>37226</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>27507</v>
+        <v>26464</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>51544</v>
+        <v>50435</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.06899567917137278</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.0509820826066724</v>
+        <v>0.04904809340418778</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.09553264007302842</v>
+        <v>0.09347790758735317</v>
       </c>
     </row>
     <row r="48">
@@ -7193,19 +7193,19 @@
         <v>187446</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>169609</v>
+        <v>171288</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>203156</v>
+        <v>204080</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.6596492692503061</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.5968769004944295</v>
+        <v>0.6027855364733345</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.7149355195335028</v>
+        <v>0.7181866773552624</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>132</v>
@@ -7214,19 +7214,19 @@
         <v>141565</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>123847</v>
+        <v>125554</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>156843</v>
+        <v>156552</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.5543240225655059</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.484944417437743</v>
+        <v>0.4916276911831091</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.6141458311479453</v>
+        <v>0.6130054229539311</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>311</v>
@@ -7235,19 +7235,19 @@
         <v>329011</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>304366</v>
+        <v>305281</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>351296</v>
+        <v>352500</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.6097953663624062</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.5641167711843017</v>
+        <v>0.5658132409725688</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.651097135255041</v>
+        <v>0.6533302062614519</v>
       </c>
     </row>
     <row r="49">
@@ -7264,19 +7264,19 @@
         <v>39918</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>29137</v>
+        <v>29323</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>52811</v>
+        <v>52644</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.1404788623424564</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.1025384841546008</v>
+        <v>0.1031906730562748</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.1858487295067514</v>
+        <v>0.1852620705380408</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>36</v>
@@ -7285,19 +7285,19 @@
         <v>38193</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>27849</v>
+        <v>28145</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>50453</v>
+        <v>51410</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.1495498677884052</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.1090482638157982</v>
+        <v>0.1102067127724726</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.1975580828702299</v>
+        <v>0.2013064907880024</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>74</v>
@@ -7306,19 +7306,19 @@
         <v>78111</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>63060</v>
+        <v>60948</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>95675</v>
+        <v>94072</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.1447724675210067</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.1168770925204474</v>
+        <v>0.1129612199199736</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.1773248594416497</v>
+        <v>0.1743552154084363</v>
       </c>
     </row>
     <row r="50">
@@ -7335,19 +7335,19 @@
         <v>17703</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>10419</v>
+        <v>10682</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>26664</v>
+        <v>27347</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.06229824012868405</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.0366647190745829</v>
+        <v>0.03759103063339978</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.09383306014228551</v>
+        <v>0.09623899705615131</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>39</v>
@@ -7356,19 +7356,19 @@
         <v>42274</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>31407</v>
+        <v>31166</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>56348</v>
+        <v>55715</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.1655292610701467</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.1229797442527596</v>
+        <v>0.1220354210527369</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.2206411728344796</v>
+        <v>0.2181620471133307</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>56</v>
@@ -7377,19 +7377,19 @@
         <v>59976</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>47220</v>
+        <v>46009</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>75978</v>
+        <v>77755</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.1111608771034252</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.08751920825166669</v>
+        <v>0.08527382993800454</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.1408183954599262</v>
+        <v>0.1441119076903951</v>
       </c>
     </row>
     <row r="51">
@@ -7409,7 +7409,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>5075</v>
+        <v>5518</v>
       </c>
       <c r="G51" s="6" t="n">
         <v>0.003555337910360538</v>
@@ -7418,7 +7418,7 @@
         <v>0</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.01785965871389516</v>
+        <v>0.01941992645774173</v>
       </c>
       <c r="J51" s="5" t="n">
         <v>0</v>
@@ -7443,7 +7443,7 @@
         <v>0</v>
       </c>
       <c r="T51" s="5" t="n">
-        <v>6035</v>
+        <v>5379</v>
       </c>
       <c r="U51" s="6" t="n">
         <v>0.001872479559720069</v>
@@ -7452,7 +7452,7 @@
         <v>0</v>
       </c>
       <c r="W51" s="6" t="n">
-        <v>0.01118503874828973</v>
+        <v>0.009969761255123147</v>
       </c>
     </row>
     <row r="52">
@@ -7789,7 +7789,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5724</v>
+        <v>5804</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08667748005377943</v>
@@ -7798,7 +7798,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2794727828046851</v>
+        <v>0.2833744922950114</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -7810,7 +7810,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4344</v>
+        <v>5723</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05222009306489515</v>
@@ -7819,7 +7819,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2164276445774539</v>
+        <v>0.2851456746011103</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -7828,19 +7828,19 @@
         <v>2823</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>760</v>
+        <v>933</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7501</v>
+        <v>7516</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06962286245910627</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01873726184863945</v>
+        <v>0.02301966110114799</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1849665253824801</v>
+        <v>0.1853535965851982</v>
       </c>
     </row>
     <row r="5">
@@ -7870,19 +7870,19 @@
         <v>3112</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>873</v>
+        <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8425</v>
+        <v>8139</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1550468674333691</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0434798403895173</v>
+        <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.419787905947473</v>
+        <v>0.4055349869289926</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>3</v>
@@ -7891,19 +7891,19 @@
         <v>3112</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>856</v>
+        <v>902</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>7591</v>
+        <v>8911</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0767401496283254</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02109988300132429</v>
+        <v>0.02224809563576858</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1872026526631448</v>
+        <v>0.2197502812147689</v>
       </c>
     </row>
     <row r="6">
@@ -7920,19 +7920,19 @@
         <v>13541</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8709</v>
+        <v>7635</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>17369</v>
+        <v>17550</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.6611942059985143</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4252453787275163</v>
+        <v>0.3727865528774909</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8480713312348119</v>
+        <v>0.8569447200137322</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>12</v>
@@ -7941,19 +7941,19 @@
         <v>12639</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>8202</v>
+        <v>7735</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>16881</v>
+        <v>16848</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6297269911250067</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4086851709279951</v>
+        <v>0.3854210809306338</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8411285559411217</v>
+        <v>0.8394600984285743</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>25</v>
@@ -7962,19 +7962,19 @@
         <v>26181</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>19410</v>
+        <v>19484</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>32080</v>
+        <v>32500</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6456195683566581</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4786546336065943</v>
+        <v>0.4804902357143965</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7910908220527604</v>
+        <v>0.8014621161312061</v>
       </c>
     </row>
     <row r="7">
@@ -7991,19 +7991,19 @@
         <v>4295</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1141</v>
+        <v>1075</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9867</v>
+        <v>9944</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2097291975396413</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05570424963474779</v>
+        <v>0.05248968440002379</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4818044727243556</v>
+        <v>0.4855446072791291</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -8015,7 +8015,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6362</v>
+        <v>6405</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.102679022384979</v>
@@ -8024,7 +8024,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.316987015270006</v>
+        <v>0.3191562335830807</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>5</v>
@@ -8033,19 +8033,19 @@
         <v>6356</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2340</v>
+        <v>2162</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>12997</v>
+        <v>13276</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1567449186883603</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05771521020188367</v>
+        <v>0.05332061861965825</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.320511369708425</v>
+        <v>0.3274024459322901</v>
       </c>
     </row>
     <row r="8">
@@ -8065,7 +8065,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4743</v>
+        <v>4127</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.042399116408065</v>
@@ -8074,7 +8074,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2315962836694543</v>
+        <v>0.2015067177895593</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1</v>
@@ -8086,7 +8086,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>4953</v>
+        <v>5877</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.06032702599175006</v>
@@ -8095,7 +8095,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2467656357200912</v>
+        <v>0.2928273355766356</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2</v>
@@ -8107,7 +8107,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>6295</v>
+        <v>6401</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.05127250086754995</v>
@@ -8116,7 +8116,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1552479401070984</v>
+        <v>0.1578474336194407</v>
       </c>
     </row>
     <row r="9">
@@ -8258,7 +8258,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5499</v>
+        <v>4971</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.05865979979330307</v>
@@ -8267,7 +8267,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.326175736656254</v>
+        <v>0.2948293023771569</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -8279,7 +8279,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>8675</v>
+        <v>8250</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1155738889167281</v>
@@ -8288,7 +8288,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3927932371553187</v>
+        <v>0.3735378568948274</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>3</v>
@@ -8297,19 +8297,19 @@
         <v>3542</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>894</v>
+        <v>918</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>9096</v>
+        <v>10124</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.09093569014350604</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02296268542304267</v>
+        <v>0.02357065037404202</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2335483731967296</v>
+        <v>0.2599377249092806</v>
       </c>
     </row>
     <row r="12">
@@ -8329,7 +8329,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4851</v>
+        <v>5144</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.05832217598547763</v>
@@ -8338,7 +8338,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2877450897028275</v>
+        <v>0.3051184687449943</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>0</v>
@@ -8363,7 +8363,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>4908</v>
+        <v>5856</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02524776179235389</v>
@@ -8372,7 +8372,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1260289320100029</v>
+        <v>0.1503590050113905</v>
       </c>
     </row>
     <row r="13">
@@ -8389,19 +8389,19 @@
         <v>7706</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3891</v>
+        <v>3724</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11772</v>
+        <v>11675</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4570764447027794</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2307949257605891</v>
+        <v>0.2208979710987813</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6982226820690038</v>
+        <v>0.6924904537769846</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>13</v>
@@ -8410,19 +8410,19 @@
         <v>14037</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>8001</v>
+        <v>8625</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>18637</v>
+        <v>18833</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.635549858980247</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3622707712689834</v>
+        <v>0.3905403742083535</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8438320495220525</v>
+        <v>0.8526913551568263</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>21</v>
@@ -8431,19 +8431,19 @@
         <v>21743</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>15197</v>
+        <v>15304</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>28505</v>
+        <v>28302</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.558288436994421</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.39020762178316</v>
+        <v>0.3929632212422232</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7319166350756687</v>
+        <v>0.7267020026096203</v>
       </c>
     </row>
     <row r="14">
@@ -8460,19 +8460,19 @@
         <v>5250</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1980</v>
+        <v>2082</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>9286</v>
+        <v>9325</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.311372465287326</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1174490149137972</v>
+        <v>0.1234634827828677</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5507649535038136</v>
+        <v>0.5531077167686276</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3</v>
@@ -8481,19 +8481,19 @@
         <v>3952</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>851</v>
+        <v>891</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>10128</v>
+        <v>10449</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1789517036794357</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03853188706575553</v>
+        <v>0.04034865358325088</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4585814274009195</v>
+        <v>0.4730902445664644</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8</v>
@@ -8502,19 +8502,19 @@
         <v>9202</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3978</v>
+        <v>4927</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>15891</v>
+        <v>16123</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2362768598305126</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1021444294147518</v>
+        <v>0.1265058629350516</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.408037293303274</v>
+        <v>0.4139793514086172</v>
       </c>
     </row>
     <row r="15">
@@ -8534,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5949</v>
+        <v>5884</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1145691142311139</v>
@@ -8543,7 +8543,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3528369435296907</v>
+        <v>0.3490070956085251</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>1</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>6294</v>
+        <v>6077</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.06992454842358929</v>
@@ -8564,7 +8564,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2849981860469166</v>
+        <v>0.2751383622770878</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>3</v>
@@ -8573,19 +8573,19 @@
         <v>3476</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>8822</v>
+        <v>8718</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.08925125123920644</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.0238577018132432</v>
+        <v>0.02389720490564101</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2265149462675173</v>
+        <v>0.2238460344379617</v>
       </c>
     </row>
     <row r="16">
@@ -8727,7 +8727,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6404</v>
+        <v>5834</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.0599279480469632</v>
@@ -8736,7 +8736,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2128693526440821</v>
+        <v>0.1938954257621171</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1</v>
@@ -8748,7 +8748,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>5616</v>
+        <v>4770</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1188937178037817</v>
@@ -8757,7 +8757,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5624697932464601</v>
+        <v>0.4776982812625123</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>3</v>
@@ -8766,19 +8766,19 @@
         <v>2990</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>876</v>
+        <v>890</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>7831</v>
+        <v>7910</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.07462184315162149</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02186955630375639</v>
+        <v>0.02221696540687825</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1954265248833148</v>
+        <v>0.1973928872594719</v>
       </c>
     </row>
     <row r="19">
@@ -8795,19 +8795,19 @@
         <v>5765</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2054</v>
+        <v>2007</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11260</v>
+        <v>11639</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1916071099267004</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06826404740189794</v>
+        <v>0.06669546287353206</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3742542552837999</v>
+        <v>0.3868570862904484</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -8829,19 +8829,19 @@
         <v>5765</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2008</v>
+        <v>2117</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>11522</v>
+        <v>11516</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1438598357677957</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05011599003786665</v>
+        <v>0.05281878433079155</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2875272155064946</v>
+        <v>0.2873953289083251</v>
       </c>
     </row>
     <row r="20">
@@ -8858,19 +8858,19 @@
         <v>15933</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>10112</v>
+        <v>10150</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>21204</v>
+        <v>21110</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5295867440311562</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3360902824431948</v>
+        <v>0.3373525198485526</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7047957145946123</v>
+        <v>0.7016495809333869</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>7</v>
@@ -8879,7 +8879,7 @@
         <v>7757</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>4161</v>
+        <v>3414</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>9985</v>
@@ -8888,7 +8888,7 @@
         <v>0.7768230650582252</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4167182198687273</v>
+        <v>0.3419122684973797</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -8900,19 +8900,19 @@
         <v>23690</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>17739</v>
+        <v>17320</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>29973</v>
+        <v>29558</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5911964640808685</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4426955258813415</v>
+        <v>0.4322216847835873</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7480067731672195</v>
+        <v>0.7376285522360662</v>
       </c>
     </row>
     <row r="21">
@@ -8929,19 +8929,19 @@
         <v>5569</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2474</v>
+        <v>2465</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>11155</v>
+        <v>10702</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1850917781937552</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.08221462066964835</v>
+        <v>0.08193580934255318</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3707617109546956</v>
+        <v>0.3557150731956717</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1</v>
@@ -8953,7 +8953,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>4383</v>
+        <v>4382</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1042832171379932</v>
@@ -8962,7 +8962,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4389288349370567</v>
+        <v>0.4388387083214119</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>7</v>
@@ -8971,19 +8971,19 @@
         <v>6610</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>3030</v>
+        <v>2900</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>12594</v>
+        <v>12475</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1649547983051065</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.07561333307906246</v>
+        <v>0.07236664018968403</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3142836824830035</v>
+        <v>0.3113333370434477</v>
       </c>
     </row>
     <row r="22">
@@ -9003,7 +9003,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5396</v>
+        <v>6555</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03378641980142501</v>
@@ -9012,7 +9012,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1793632046241599</v>
+        <v>0.2178791267076599</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>0</v>
@@ -9037,7 +9037,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4962</v>
+        <v>5651</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02536705869460792</v>
@@ -9046,7 +9046,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1238280080144976</v>
+        <v>0.1410269892065147</v>
       </c>
     </row>
     <row r="23">
@@ -9185,19 +9185,19 @@
         <v>6450</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2130</v>
+        <v>2253</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>14610</v>
+        <v>13514</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1115674993022476</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03684644976660996</v>
+        <v>0.03897182418485535</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2526984296746426</v>
+        <v>0.2337303245721816</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>5</v>
@@ -9206,19 +9206,19 @@
         <v>5348</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2048</v>
+        <v>2055</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>11125</v>
+        <v>11191</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1390347030035451</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05325479709108441</v>
+        <v>0.05342237056043396</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2892291612562328</v>
+        <v>0.2909350674051883</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>10</v>
@@ -9227,19 +9227,19 @@
         <v>11798</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>6129</v>
+        <v>6143</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>20390</v>
+        <v>20992</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1225407514144867</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06365496747576539</v>
+        <v>0.06380526390024917</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2117721514267237</v>
+        <v>0.2180222932387535</v>
       </c>
     </row>
     <row r="26">
@@ -9256,19 +9256,19 @@
         <v>3667</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1042</v>
+        <v>872</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>8681</v>
+        <v>8379</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.06342563560203354</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01802754439970946</v>
+        <v>0.01508882598883479</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1501546535652337</v>
+        <v>0.1449205993208774</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2</v>
@@ -9280,7 +9280,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>7875</v>
+        <v>7440</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.06252048727731124</v>
@@ -9289,7 +9289,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2047294082323266</v>
+        <v>0.1934175009290866</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6</v>
@@ -9298,19 +9298,19 @@
         <v>6072</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2716</v>
+        <v>2573</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>13216</v>
+        <v>12413</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.0630640254114163</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02820947250817806</v>
+        <v>0.02672791597626045</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.137264070058303</v>
+        <v>0.1289231680881385</v>
       </c>
     </row>
     <row r="27">
@@ -9327,19 +9327,19 @@
         <v>33610</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>26134</v>
+        <v>25913</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>40868</v>
+        <v>40944</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.581314438506744</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4520059790088897</v>
+        <v>0.448182230381833</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7068521798722432</v>
+        <v>0.7081676235839064</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>23</v>
@@ -9348,19 +9348,19 @@
         <v>23596</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>16225</v>
+        <v>16933</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>29339</v>
+        <v>29332</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.6134354318397967</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.4218187088959688</v>
+        <v>0.4402095883355618</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.7627337235018803</v>
+        <v>0.7625683702738163</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>57</v>
@@ -9369,19 +9369,19 @@
         <v>57206</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>46873</v>
+        <v>47104</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>66377</v>
+        <v>66979</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.594146897237244</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.4868304732773382</v>
+        <v>0.4892274563968279</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.6893993259737263</v>
+        <v>0.6956539055307273</v>
       </c>
     </row>
     <row r="28">
@@ -9398,19 +9398,19 @@
         <v>12063</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>6803</v>
+        <v>6510</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>18830</v>
+        <v>18852</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2086327938009852</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1176586914824681</v>
+        <v>0.1125946434360419</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3256865583887996</v>
+        <v>0.326058759264915</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>5</v>
@@ -9419,19 +9419,19 @@
         <v>6054</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1764</v>
+        <v>2345</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>12063</v>
+        <v>13038</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1573945801534994</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.04586483763380856</v>
+        <v>0.06095230573253659</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3136019550479132</v>
+        <v>0.3389615069607462</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>17</v>
@@ -9440,19 +9440,19 @@
         <v>18117</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>11414</v>
+        <v>11497</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>27501</v>
+        <v>27763</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1881629330081274</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1185455636102844</v>
+        <v>0.1194144896578346</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2856281139110662</v>
+        <v>0.2883482369160487</v>
       </c>
     </row>
     <row r="29">
@@ -9472,7 +9472,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>6608</v>
+        <v>6937</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03505963278798957</v>
@@ -9481,7 +9481,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1142975022158054</v>
+        <v>0.1199785668255591</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1</v>
@@ -9493,7 +9493,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>4403</v>
+        <v>5387</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02761479772584762</v>
@@ -9502,7 +9502,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1144637168130481</v>
+        <v>0.1400482126939855</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3</v>
@@ -9511,19 +9511,19 @@
         <v>3089</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>974</v>
+        <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>8112</v>
+        <v>8303</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03208539292872565</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01011152948131836</v>
+        <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.08425355374132255</v>
+        <v>0.08623535486593378</v>
       </c>
     </row>
     <row r="30">
@@ -9662,19 +9662,19 @@
         <v>3874</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1037</v>
+        <v>1070</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>8893</v>
+        <v>9030</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.0950048191344995</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.02541994193263629</v>
+        <v>0.02624016142123907</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.218090554330009</v>
+        <v>0.2214386306256503</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1</v>
@@ -9686,7 +9686,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>6400</v>
+        <v>4182</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02593451936027718</v>
@@ -9695,7 +9695,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.162752093788587</v>
+        <v>0.1063585624528749</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>5</v>
@@ -9704,19 +9704,19 @@
         <v>4894</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1799</v>
+        <v>1846</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>10632</v>
+        <v>10975</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.06109657634982254</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02246382236978311</v>
+        <v>0.02304659622506824</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1327397722082451</v>
+        <v>0.1370185166356206</v>
       </c>
     </row>
     <row r="33">
@@ -9733,19 +9733,19 @@
         <v>4027</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>1019</v>
+        <v>1044</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>8471</v>
+        <v>8498</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.09876645732706496</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.02498707745021864</v>
+        <v>0.02560364444860205</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2077432664194067</v>
+        <v>0.2084012403421146</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>5</v>
@@ -9754,19 +9754,19 @@
         <v>5342</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>2085</v>
+        <v>2011</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>10907</v>
+        <v>10770</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.1358593035111185</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.05301837329037777</v>
+        <v>0.05114522258407941</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.277382123362874</v>
+        <v>0.2738893330407264</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>9</v>
@@ -9775,19 +9775,19 @@
         <v>9370</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>4902</v>
+        <v>4888</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>16780</v>
+        <v>16554</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1169762122882411</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.06120276039215811</v>
+        <v>0.06102666607680775</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.209490131837935</v>
+        <v>0.2066670126016779</v>
       </c>
     </row>
     <row r="34">
@@ -9804,19 +9804,19 @@
         <v>26804</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>20027</v>
+        <v>19652</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>32607</v>
+        <v>32112</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.6573238432024688</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.4911225418107613</v>
+        <v>0.4819387906146147</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.7996504676391772</v>
+        <v>0.7874965122049048</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>23</v>
@@ -9825,19 +9825,19 @@
         <v>25462</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>19333</v>
+        <v>18322</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>31462</v>
+        <v>30800</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.6475147315445858</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.4916584765165997</v>
+        <v>0.4659390135409286</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.8000977491718099</v>
+        <v>0.7832605866196332</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>49</v>
@@ -9846,19 +9846,19 @@
         <v>52265</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>42866</v>
+        <v>43059</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>60458</v>
+        <v>60383</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.652508318430103</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.5351679408706579</v>
+        <v>0.5375742233526228</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.7547847793666431</v>
+        <v>0.7538490262751888</v>
       </c>
     </row>
     <row r="35">
@@ -9875,19 +9875,19 @@
         <v>6072</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>2133</v>
+        <v>2801</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>11312</v>
+        <v>11822</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1489048803359667</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.05231669637023208</v>
+        <v>0.06868489348446891</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2774112846716673</v>
+        <v>0.2899108647439138</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>4</v>
@@ -9896,19 +9896,19 @@
         <v>4029</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>993</v>
+        <v>1003</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>9499</v>
+        <v>10154</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1024683855467873</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.02526375001310698</v>
+        <v>0.02550974041731322</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2415507989563772</v>
+        <v>0.2582136353030404</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>10</v>
@@ -9917,19 +9917,19 @@
         <v>10101</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>5117</v>
+        <v>4971</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>17552</v>
+        <v>17162</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1261081074172464</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.06387936167886357</v>
+        <v>0.06205676008594486</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2191320907143659</v>
+        <v>0.2142626379927633</v>
       </c>
     </row>
     <row r="36">
@@ -9962,7 +9962,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>4793</v>
+        <v>4703</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.02389842381649336</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.121892975703646</v>
+        <v>0.1195921351238748</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1</v>
@@ -9983,7 +9983,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>5693</v>
+        <v>4637</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.01173230114230943</v>
@@ -9992,7 +9992,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.07107053401247558</v>
+        <v>0.05789660639562867</v>
       </c>
     </row>
     <row r="37">
@@ -10025,7 +10025,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>8849</v>
+        <v>7579</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.06432463622073777</v>
@@ -10034,7 +10034,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2250444088335217</v>
+        <v>0.1927486961981847</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>2</v>
@@ -10046,7 +10046,7 @@
         <v>0</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>7814</v>
+        <v>8698</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.0315784843722775</v>
@@ -10055,7 +10055,7 @@
         <v>0</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.09755933140043295</v>
+        <v>0.1085910632188608</v>
       </c>
     </row>
     <row r="38">
@@ -10147,19 +10147,19 @@
         <v>3416</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>987</v>
+        <v>977</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>9159</v>
+        <v>8903</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.1154308064106974</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.0333527558857981</v>
+        <v>0.03301533029740859</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.3094799687810349</v>
+        <v>0.3008174859594043</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>2</v>
@@ -10171,7 +10171,7 @@
         <v>0</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>7043</v>
+        <v>6274</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.03376028326284993</v>
@@ -10180,7 +10180,7 @@
         <v>0</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.1186464089819649</v>
+        <v>0.1056987723218638</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>5</v>
@@ -10189,19 +10189,19 @@
         <v>5420</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>1982</v>
+        <v>2041</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>11954</v>
+        <v>12193</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.06093167216981891</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.02227906410421611</v>
+        <v>0.02294547276814335</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.1343789884785071</v>
+        <v>0.1370657539611581</v>
       </c>
     </row>
     <row r="40">
@@ -10221,7 +10221,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>7617</v>
+        <v>7993</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.08315869014825014</v>
@@ -10230,7 +10230,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2573762329011941</v>
+        <v>0.2700812812146528</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>4</v>
@@ -10239,19 +10239,19 @@
         <v>4069</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1003</v>
+        <v>1021</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>10057</v>
+        <v>9364</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.06855297615477277</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.0168934223141299</v>
+        <v>0.01719684245461618</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1694250063513364</v>
+        <v>0.1577517907407915</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>6</v>
@@ -10260,19 +10260,19 @@
         <v>6531</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>2790</v>
+        <v>2552</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>13153</v>
+        <v>13056</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.07341222671280219</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.03135794344095428</v>
+        <v>0.02868321421109381</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1478555415956825</v>
+        <v>0.1467725736602123</v>
       </c>
     </row>
     <row r="41">
@@ -10289,19 +10289,19 @@
         <v>19112</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>12929</v>
+        <v>13085</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>24096</v>
+        <v>24361</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.6457792687251281</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.4368385772683994</v>
+        <v>0.4421262787775195</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.8141724355894289</v>
+        <v>0.8231261948381868</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>31</v>
@@ -10310,19 +10310,19 @@
         <v>36527</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>27991</v>
+        <v>29034</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>44075</v>
+        <v>44422</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.6153319494671052</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.4715246057267097</v>
+        <v>0.4890952598054027</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.7424841825003236</v>
+        <v>0.7483173202557619</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>49</v>
@@ -10331,19 +10331,19 @@
         <v>55639</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>45973</v>
+        <v>45091</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>65723</v>
+        <v>64958</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.6254616256446012</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.5168015673944741</v>
+        <v>0.5068803379587054</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.7388148532967518</v>
+        <v>0.7302130510279049</v>
       </c>
     </row>
     <row r="42">
@@ -10360,19 +10360,19 @@
         <v>4606</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1306</v>
+        <v>1078</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>10873</v>
+        <v>10090</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1556312347159243</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.04413747878030578</v>
+        <v>0.03642344933584191</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3673728964093327</v>
+        <v>0.3409376384875781</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>14</v>
@@ -10381,19 +10381,19 @@
         <v>16761</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>10475</v>
+        <v>10014</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>25079</v>
+        <v>25372</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2823547911152721</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1764541141539354</v>
+        <v>0.1686912099899414</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.4224764255546108</v>
+        <v>0.4274123060501221</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>18</v>
@@ -10402,19 +10402,19 @@
         <v>21367</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>13346</v>
+        <v>13270</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>31488</v>
+        <v>30813</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2401944754727777</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1500285181346509</v>
+        <v>0.1491769062700016</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.353969354334726</v>
+        <v>0.3463783343917877</v>
       </c>
     </row>
     <row r="43">
@@ -10600,19 +10600,19 @@
         <v>18308</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>10778</v>
+        <v>11209</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>28219</v>
+        <v>28550</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.09359133501999881</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.0550966074837179</v>
+        <v>0.0573028377413662</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1442565466226275</v>
+        <v>0.1459497072386883</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>12</v>
@@ -10621,19 +10621,19 @@
         <v>13160</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>6924</v>
+        <v>7242</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>22000</v>
+        <v>22374</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.06952104651144224</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.03657620587785486</v>
+        <v>0.03826052865424272</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.1162250905754549</v>
+        <v>0.1181993378517661</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>29</v>
@@ -10642,19 +10642,19 @@
         <v>31468</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>22048</v>
+        <v>21429</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>43340</v>
+        <v>43660</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.08175391209576194</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.05728131765456672</v>
+        <v>0.05567346772110719</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.1125996616034571</v>
+        <v>0.1134314116245962</v>
       </c>
     </row>
     <row r="47">
@@ -10671,19 +10671,19 @@
         <v>16904</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>10264</v>
+        <v>10496</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>26788</v>
+        <v>26859</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.08641209474111977</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.05246917715916007</v>
+        <v>0.05365644970467223</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.136940881101721</v>
+        <v>0.1373043963631679</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>14</v>
@@ -10692,19 +10692,19 @@
         <v>14928</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>8940</v>
+        <v>8789</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>25165</v>
+        <v>23235</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.07886505178745513</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.04723053026155193</v>
+        <v>0.04642946303028663</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.132943768206235</v>
+        <v>0.1227494114570068</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>30</v>
@@ -10713,19 +10713,19 @@
         <v>31832</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>21774</v>
+        <v>22197</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>44733</v>
+        <v>43681</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.08270056717724565</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.05656963998050686</v>
+        <v>0.05766883182783761</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.1162175722686767</v>
+        <v>0.1134858267612858</v>
       </c>
     </row>
     <row r="48">
@@ -10742,19 +10742,19 @@
         <v>116706</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>102922</v>
+        <v>102446</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>130110</v>
+        <v>131064</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.5966116077996101</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.5261473916945809</v>
+        <v>0.5237132918947366</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.6651317863430856</v>
+        <v>0.6700080954404849</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>109</v>
@@ -10763,19 +10763,19 @@
         <v>120017</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>106247</v>
+        <v>105420</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>133846</v>
+        <v>132834</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.6340363148773664</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.5612917782992473</v>
+        <v>0.5569224088715902</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.7070919600714557</v>
+        <v>0.7017457957213284</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>223</v>
@@ -10784,19 +10784,19 @@
         <v>236724</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>217940</v>
+        <v>214312</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>257533</v>
+        <v>255016</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.6150165423868128</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.5662171567059038</v>
+        <v>0.5567911431540068</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.6690794029934661</v>
+        <v>0.6625422822054292</v>
       </c>
     </row>
     <row r="49">
@@ -10813,19 +10813,19 @@
         <v>37854</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>27927</v>
+        <v>27568</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>50159</v>
+        <v>49815</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.1935125803009239</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.1427662261384538</v>
+        <v>0.1409320369265378</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.2564152925641429</v>
+        <v>0.2546581119559377</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>29</v>
@@ -10834,19 +10834,19 @@
         <v>33899</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>23820</v>
+        <v>23491</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>46302</v>
+        <v>45770</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.179083879794422</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.1258391100194836</v>
+        <v>0.1240986025985847</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.2446064856859713</v>
+        <v>0.2417950347434869</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>65</v>
@@ -10855,19 +10855,19 @@
         <v>71753</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>56947</v>
+        <v>56582</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>87879</v>
+        <v>88158</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.186416752177306</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.1479492827732787</v>
+        <v>0.1470022319642416</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.2283127079966893</v>
+        <v>0.2290383284838766</v>
       </c>
     </row>
     <row r="50">
@@ -10884,19 +10884,19 @@
         <v>5843</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>2024</v>
+        <v>1969</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>12271</v>
+        <v>12150</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.02987238213834743</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.0103455924791298</v>
+        <v>0.0100672061251129</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.06273166811922073</v>
+        <v>0.06211386235597932</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>4</v>
@@ -10905,19 +10905,19 @@
         <v>4757</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>1219</v>
+        <v>1550</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>11546</v>
+        <v>11530</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.02513117689503062</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.006437204555586443</v>
+        <v>0.008185914691812254</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.06099700539255028</v>
+        <v>0.06091002177820733</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>10</v>
@@ -10926,19 +10926,19 @@
         <v>10601</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>5073</v>
+        <v>5450</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>18799</v>
+        <v>18852</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.02754072534845065</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.01317860920810768</v>
+        <v>0.01415899418976213</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.04883982668534267</v>
+        <v>0.04897709425257176</v>
       </c>
     </row>
     <row r="51">
@@ -10971,7 +10971,7 @@
         <v>0</v>
       </c>
       <c r="M51" s="5" t="n">
-        <v>8928</v>
+        <v>9561</v>
       </c>
       <c r="N51" s="6" t="n">
         <v>0.01336253013428362</v>
@@ -10980,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="P51" s="6" t="n">
-        <v>0.04716804411489803</v>
+        <v>0.05050860820277882</v>
       </c>
       <c r="Q51" s="5" t="n">
         <v>2</v>
@@ -10992,7 +10992,7 @@
         <v>0</v>
       </c>
       <c r="T51" s="5" t="n">
-        <v>8580</v>
+        <v>8998</v>
       </c>
       <c r="U51" s="6" t="n">
         <v>0.00657150081442295</v>
@@ -11001,7 +11001,7 @@
         <v>0</v>
       </c>
       <c r="W51" s="6" t="n">
-        <v>0.02229125223953035</v>
+        <v>0.0233773048946289</v>
       </c>
     </row>
     <row r="52">
@@ -11338,16 +11338,16 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7974</v>
+        <v>7654</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.09626478898688411</v>
+        <v>0.09626478898688409</v>
       </c>
       <c r="H4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3082714337448688</v>
+        <v>0.2958989385357002</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -11356,19 +11356,19 @@
         <v>3514</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1281</v>
+        <v>1264</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7220</v>
+        <v>7982</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1341908915828323</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0489143261212312</v>
+        <v>0.04826952406649952</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2756838863383289</v>
+        <v>0.3047974402787321</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -11377,19 +11377,19 @@
         <v>6004</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2682</v>
+        <v>2440</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12000</v>
+        <v>12046</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1153448882344946</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05152977730163438</v>
+        <v>0.04687746558841215</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2305189550664539</v>
+        <v>0.2313970512291613</v>
       </c>
     </row>
     <row r="5">
@@ -11409,7 +11409,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6064</v>
+        <v>6038</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04364064128991112</v>
@@ -11418,7 +11418,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.234416210041495</v>
+        <v>0.2334364230595327</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -11430,7 +11430,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>3365</v>
+        <v>4202</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02602897639505049</v>
@@ -11439,7 +11439,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1285066307215208</v>
+        <v>0.1604725956151716</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2</v>
@@ -11451,7 +11451,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>6288</v>
+        <v>6515</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03478045553105336</v>
@@ -11460,7 +11460,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1207870735438055</v>
+        <v>0.1251532170120399</v>
       </c>
     </row>
     <row r="6">
@@ -11477,19 +11477,19 @@
         <v>18128</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>12787</v>
+        <v>13134</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>21962</v>
+        <v>22449</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.7008274886387066</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4943284775888203</v>
+        <v>0.5077409115223707</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8490352616028388</v>
+        <v>0.8678644133336232</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>23</v>
@@ -11498,19 +11498,19 @@
         <v>14088</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>9798</v>
+        <v>10018</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>17926</v>
+        <v>17478</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.5379606582363792</v>
+        <v>0.5379606582363794</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.374142195255687</v>
+        <v>0.3825266670160541</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6845162690318565</v>
+        <v>0.6674071975333472</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>40</v>
@@ -11519,19 +11519,19 @@
         <v>32217</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>25972</v>
+        <v>25800</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>38183</v>
+        <v>38723</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.6188914320571337</v>
+        <v>0.6188914320571336</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4989196264689234</v>
+        <v>0.4956284322588019</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7335021854426395</v>
+        <v>0.7438804681285711</v>
       </c>
     </row>
     <row r="7">
@@ -11548,19 +11548,19 @@
         <v>4120</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1507</v>
+        <v>1302</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9266</v>
+        <v>8102</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1592670810844982</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05826599615064296</v>
+        <v>0.05035275312255381</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3582268884792632</v>
+        <v>0.3132040279484403</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>12</v>
@@ -11569,19 +11569,19 @@
         <v>7205</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4110</v>
+        <v>4121</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11276</v>
+        <v>11066</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.2751411680297425</v>
+        <v>0.2751411680297426</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1569483948090676</v>
+        <v>0.1573494144411268</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.430578857881936</v>
+        <v>0.4225557427798133</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>17</v>
@@ -11590,19 +11590,19 @@
         <v>11325</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6537</v>
+        <v>6612</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>16672</v>
+        <v>17304</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2175617364224213</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1255766046826581</v>
+        <v>0.1270167644008829</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3202723136782302</v>
+        <v>0.3324056755303969</v>
       </c>
     </row>
     <row r="8">
@@ -11635,16 +11635,16 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>3537</v>
+        <v>3368</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.0266783057559954</v>
+        <v>0.02667830575599541</v>
       </c>
       <c r="O8" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1350501426221039</v>
+        <v>0.1286135742223782</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1</v>
@@ -11656,7 +11656,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4171</v>
+        <v>3391</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01342148775489712</v>
@@ -11665,7 +11665,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.08012890835366783</v>
+        <v>0.06514129138636712</v>
       </c>
     </row>
     <row r="9">
@@ -11804,19 +11804,19 @@
         <v>5923</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1622</v>
+        <v>1708</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>13065</v>
+        <v>13889</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2301848704879081</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.06304005410369436</v>
+        <v>0.0663785905254221</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5077317189488163</v>
+        <v>0.5397639903665923</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -11828,16 +11828,16 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>4294</v>
+        <v>4232</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.05500932847967362</v>
+        <v>0.0550093284796736</v>
       </c>
       <c r="O11" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1718850290840299</v>
+        <v>0.1694033396083087</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>6</v>
@@ -11846,19 +11846,19 @@
         <v>7297</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2705</v>
+        <v>2967</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>16617</v>
+        <v>16432</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1438904695076508</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0533325573986279</v>
+        <v>0.05850276625944446</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3276685428796324</v>
+        <v>0.3240055729905052</v>
       </c>
     </row>
     <row r="12">
@@ -11878,7 +11878,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8242</v>
+        <v>8060</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1007471553937318</v>
@@ -11887,7 +11887,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3202984529875597</v>
+        <v>0.3132430883500144</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>0</v>
@@ -11912,16 +11912,16 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>7323</v>
+        <v>8495</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.05111742212447036</v>
+        <v>0.05111742212447035</v>
       </c>
       <c r="V12" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1443989528937674</v>
+        <v>0.1675029224951964</v>
       </c>
     </row>
     <row r="13">
@@ -11938,19 +11938,19 @@
         <v>12690</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7396</v>
+        <v>6921</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>18042</v>
+        <v>18287</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4931519232763518</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2874347903874146</v>
+        <v>0.2689670197714001</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7011561628794214</v>
+        <v>0.7106744081839516</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>27</v>
@@ -11959,19 +11959,19 @@
         <v>18405</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>14675</v>
+        <v>14313</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>21741</v>
+        <v>21578</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.7367123189328966</v>
+        <v>0.7367123189328967</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.58741394850785</v>
+        <v>0.5728917628491194</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8702202454853414</v>
+        <v>0.8637209439580977</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>41</v>
@@ -11980,19 +11980,19 @@
         <v>31094</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>23595</v>
+        <v>22804</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>37414</v>
+        <v>37566</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.6131338465787954</v>
+        <v>0.6131338465787953</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4652532323130962</v>
+        <v>0.449665547609737</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7377497712755298</v>
+        <v>0.740747413910005</v>
       </c>
     </row>
     <row r="14">
@@ -12009,19 +12009,19 @@
         <v>3384</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>784</v>
+        <v>871</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7712</v>
+        <v>7896</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1315132149655365</v>
+        <v>0.1315132149655364</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03045728953598376</v>
+        <v>0.03384563062381767</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2997097368070498</v>
+        <v>0.3068361234481963</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>7</v>
@@ -12030,19 +12030,19 @@
         <v>4431</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1932</v>
+        <v>1848</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7874</v>
+        <v>7820</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1773781357363871</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.07733916056183975</v>
+        <v>0.07398355076987415</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3151649287414953</v>
+        <v>0.3130055834365654</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>11</v>
@@ -12051,19 +12051,19 @@
         <v>7815</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4014</v>
+        <v>4031</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>12470</v>
+        <v>13324</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1541070418123315</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0791446633204634</v>
+        <v>0.07949431460892033</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2458979079058066</v>
+        <v>0.2627375118195718</v>
       </c>
     </row>
     <row r="15">
@@ -12083,16 +12083,16 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5507</v>
+        <v>6019</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.04440283587647182</v>
+        <v>0.04440283587647181</v>
       </c>
       <c r="H15" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2140142790919261</v>
+        <v>0.2339199178743443</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>1</v>
@@ -12104,7 +12104,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>3135</v>
+        <v>3669</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.0309002168510427</v>
@@ -12113,7 +12113,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1254853562335067</v>
+        <v>0.1468520883555592</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>2</v>
@@ -12125,16 +12125,16 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>6022</v>
+        <v>6492</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.03775121997675188</v>
+        <v>0.03775121997675187</v>
       </c>
       <c r="V15" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1187382074511193</v>
+        <v>0.1280072105897841</v>
       </c>
     </row>
     <row r="16">
@@ -12273,19 +12273,19 @@
         <v>3301</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>789</v>
+        <v>1128</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7887</v>
+        <v>7318</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.08856282128727584</v>
+        <v>0.08856282128727588</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02115638469801878</v>
+        <v>0.03025350627200508</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2116007726795351</v>
+        <v>0.1963446945228918</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>2</v>
@@ -12297,7 +12297,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>4163</v>
+        <v>4320</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1069874283754116</v>
@@ -12306,7 +12306,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3281093681725262</v>
+        <v>0.3404824673361385</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>6</v>
@@ -12315,19 +12315,19 @@
         <v>4658</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1811</v>
+        <v>1766</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>10028</v>
+        <v>10048</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.09324218939056883</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.03625457916096021</v>
+        <v>0.03534666493260551</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2007254750883266</v>
+        <v>0.2011193913502281</v>
       </c>
     </row>
     <row r="19">
@@ -12347,7 +12347,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5299</v>
+        <v>4238</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02973529443421589</v>
@@ -12356,7 +12356,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1421713430015878</v>
+        <v>0.1137054016247961</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -12368,7 +12368,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>2970</v>
+        <v>3371</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07204064282836871</v>
@@ -12377,7 +12377,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2341075502514957</v>
+        <v>0.2656859331271184</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>4</v>
@@ -12386,19 +12386,19 @@
         <v>2022</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>437</v>
+        <v>639</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>5188</v>
+        <v>5684</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04047974596728383</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.008752846491516836</v>
+        <v>0.01278419314968016</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1038380777709538</v>
+        <v>0.1137739398564607</v>
       </c>
     </row>
     <row r="20">
@@ -12415,19 +12415,19 @@
         <v>18418</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>12926</v>
+        <v>12716</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>24605</v>
+        <v>24528</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.494170612775461</v>
+        <v>0.4941706127754611</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3468067366154655</v>
+        <v>0.3411865037228991</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6601653844277769</v>
+        <v>0.6580866154583794</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>13</v>
@@ -12436,19 +12436,19 @@
         <v>7421</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>4561</v>
+        <v>4443</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>10184</v>
+        <v>9963</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.5848907992151239</v>
+        <v>0.5848907992151238</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3594668239766602</v>
+        <v>0.3502109128855147</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8026721691793224</v>
+        <v>0.7851930493930145</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>32</v>
@@ -12457,19 +12457,19 @@
         <v>25839</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>19129</v>
+        <v>19440</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>32712</v>
+        <v>32539</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.5172111663525253</v>
+        <v>0.5172111663525254</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3828994737597405</v>
+        <v>0.389126897500354</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.654772163677322</v>
+        <v>0.6513213031317057</v>
       </c>
     </row>
     <row r="21">
@@ -12486,19 +12486,19 @@
         <v>12095</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>6882</v>
+        <v>6503</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>18209</v>
+        <v>17829</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3245060257180931</v>
+        <v>0.3245060257180932</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1846356559634671</v>
+        <v>0.1744886923907641</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4885606269246466</v>
+        <v>0.4783623071073299</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>4</v>
@@ -12507,19 +12507,19 @@
         <v>2321</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>572</v>
+        <v>611</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>5114</v>
+        <v>5433</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.1828990555545271</v>
+        <v>0.182899055554527</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.04510789727840859</v>
+        <v>0.04815290859593754</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4030465281023847</v>
+        <v>0.4282082780746799</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>16</v>
@@ -12528,19 +12528,19 @@
         <v>14415</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>9486</v>
+        <v>9027</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>21278</v>
+        <v>21030</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2885415605754937</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.189877165412643</v>
+        <v>0.1806935734307794</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4259129321654022</v>
+        <v>0.4209361294086625</v>
       </c>
     </row>
     <row r="22">
@@ -12560,7 +12560,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>3962</v>
+        <v>4766</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02512723591390708</v>
@@ -12569,7 +12569,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1062993208322178</v>
+        <v>0.1278665901213018</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1</v>
@@ -12581,7 +12581,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>3201</v>
+        <v>3309</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05318207402656867</v>
@@ -12590,7 +12590,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2522945844020685</v>
+        <v>0.2607803672058859</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2</v>
@@ -12602,16 +12602,16 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>5036</v>
+        <v>5635</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.03225243071341905</v>
+        <v>0.03225243071341906</v>
       </c>
       <c r="V22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1008047895655003</v>
+        <v>0.1127959755016668</v>
       </c>
     </row>
     <row r="23">
@@ -12631,16 +12631,16 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>6607</v>
+        <v>5676</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.03789800987104675</v>
+        <v>0.03789800987104676</v>
       </c>
       <c r="H23" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1772569151774013</v>
+        <v>0.1522947777153592</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>0</v>
@@ -12665,16 +12665,16 @@
         <v>0</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>7342</v>
+        <v>8213</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.02827290700070916</v>
+        <v>0.02827290700070917</v>
       </c>
       <c r="V23" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1469602299732718</v>
+        <v>0.1643973727889666</v>
       </c>
     </row>
     <row r="24">
@@ -12766,19 +12766,19 @@
         <v>14321</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>7712</v>
+        <v>7442</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>27483</v>
+        <v>25453</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1841219354952672</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.09915012931218729</v>
+        <v>0.09568655070175221</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3533391349974524</v>
+        <v>0.3272412103006652</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>5</v>
@@ -12787,19 +12787,19 @@
         <v>3578</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1267</v>
+        <v>1319</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>7416</v>
+        <v>7517</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.06459404825779662</v>
+        <v>0.06459404825779663</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0228812937161701</v>
+        <v>0.02380696008676098</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1338807869626236</v>
+        <v>0.1357087712565617</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>16</v>
@@ -12808,19 +12808,19 @@
         <v>17899</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>10788</v>
+        <v>10375</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>30898</v>
+        <v>30436</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1344041961804166</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08100896206945897</v>
+        <v>0.07790890227642014</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2320102491710117</v>
+        <v>0.2285447814314742</v>
       </c>
     </row>
     <row r="26">
@@ -12837,19 +12837,19 @@
         <v>6708</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2546</v>
+        <v>2449</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>13302</v>
+        <v>14640</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.08624849138965432</v>
+        <v>0.08624849138965433</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.03273522070124221</v>
+        <v>0.03148211217606851</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1710237693893652</v>
+        <v>0.1882292725767752</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1</v>
@@ -12861,16 +12861,16 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3072</v>
+        <v>3430</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.01098505509440121</v>
+        <v>0.01098505509440122</v>
       </c>
       <c r="O26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.05544836569468856</v>
+        <v>0.06192325949818792</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7</v>
@@ -12879,19 +12879,19 @@
         <v>7317</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2956</v>
+        <v>3043</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>15339</v>
+        <v>15217</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.05494259289056157</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0221972970993553</v>
+        <v>0.02284808146415277</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1151821913548605</v>
+        <v>0.114267167010643</v>
       </c>
     </row>
     <row r="27">
@@ -12908,19 +12908,19 @@
         <v>36677</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>26350</v>
+        <v>27558</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>46034</v>
+        <v>46948</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.4715488436732998</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3387753494103755</v>
+        <v>0.3543032833721579</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5918501524153461</v>
+        <v>0.6036009187831433</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>48</v>
@@ -12929,19 +12929,19 @@
         <v>34304</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>27386</v>
+        <v>27767</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>40472</v>
+        <v>40030</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.6192768660730237</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.4943779865025067</v>
+        <v>0.5012700900236059</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.7306239595382958</v>
+        <v>0.7226472602539725</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>85</v>
@@ -12950,19 +12950,19 @@
         <v>70981</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>58820</v>
+        <v>59558</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>83160</v>
+        <v>83047</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.5329964562507384</v>
+        <v>0.5329964562507385</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.4416778580810138</v>
+        <v>0.4472229604785555</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.6244478522506922</v>
+        <v>0.623600035289457</v>
       </c>
     </row>
     <row r="28">
@@ -12979,19 +12979,19 @@
         <v>17287</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>10492</v>
+        <v>10347</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>25383</v>
+        <v>25542</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2222560898733806</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1348874110170803</v>
+        <v>0.1330241938553919</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3263403160046727</v>
+        <v>0.3283834931745541</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>22</v>
@@ -13000,19 +13000,19 @@
         <v>14660</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>9733</v>
+        <v>9624</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>21853</v>
+        <v>21232</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.2646487524708921</v>
+        <v>0.2646487524708922</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.175711937509944</v>
+        <v>0.1737404925412573</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3945062681659439</v>
+        <v>0.3832935950174449</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>40</v>
@@ -13021,19 +13021,19 @@
         <v>31947</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>23537</v>
+        <v>22248</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>42405</v>
+        <v>41864</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2398893585322511</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1767376474090978</v>
+        <v>0.167063079093683</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3184164394031868</v>
+        <v>0.3143588011155798</v>
       </c>
     </row>
     <row r="29">
@@ -13053,7 +13053,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>8876</v>
+        <v>9047</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03582463956839808</v>
@@ -13062,7 +13062,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1141132794142533</v>
+        <v>0.1163088976839863</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2</v>
@@ -13074,16 +13074,16 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>7633</v>
+        <v>7577</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.04049527810388626</v>
+        <v>0.04049527810388627</v>
       </c>
       <c r="O29" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1377999156859789</v>
+        <v>0.1367802584006257</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4</v>
@@ -13092,19 +13092,19 @@
         <v>5030</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1408</v>
+        <v>1437</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>12357</v>
+        <v>12324</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03776739614603213</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01057221340154359</v>
+        <v>0.01079067783209882</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.0927886695309932</v>
+        <v>0.09254401181554288</v>
       </c>
     </row>
     <row r="30">
@@ -13246,16 +13246,16 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>9499</v>
+        <v>8521</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.07470766660818777</v>
+        <v>0.07470766660818776</v>
       </c>
       <c r="H32" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2355771683111756</v>
+        <v>0.2113190068696537</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>8</v>
@@ -13264,19 +13264,19 @@
         <v>5318</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2382</v>
+        <v>2627</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>9578</v>
+        <v>10244</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.09336232347311278</v>
+        <v>0.0933623234731128</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.04182203417367052</v>
+        <v>0.0461268766110995</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1681549172339704</v>
+        <v>0.1798427471652956</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>10</v>
@@ -13285,19 +13285,19 @@
         <v>8330</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>3998</v>
+        <v>4035</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>15614</v>
+        <v>15413</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.08563035758444729</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.04110056352286934</v>
+        <v>0.04147765264663175</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1605014221913895</v>
+        <v>0.1584430628382908</v>
       </c>
     </row>
     <row r="33">
@@ -13317,7 +13317,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>4466</v>
+        <v>4914</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.02286852522387168</v>
@@ -13326,7 +13326,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1107555240659617</v>
+        <v>0.1218818847607462</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>6</v>
@@ -13335,19 +13335,19 @@
         <v>3703</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>1310</v>
+        <v>1273</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>7629</v>
+        <v>7681</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.06501210623128292</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.02300137049200147</v>
+        <v>0.02235049558388238</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1339284064846953</v>
+        <v>0.1348410236835907</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>7</v>
@@ -13356,19 +13356,19 @@
         <v>4625</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>1948</v>
+        <v>1849</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>9287</v>
+        <v>8621</v>
       </c>
       <c r="U33" s="6" t="n">
-        <v>0.04754447157389124</v>
+        <v>0.04754447157389125</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.02002808164853111</v>
+        <v>0.01900689672075821</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.09546225709332729</v>
+        <v>0.08862177274319111</v>
       </c>
     </row>
     <row r="34">
@@ -13385,19 +13385,19 @@
         <v>26466</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>19897</v>
+        <v>19116</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>33043</v>
+        <v>32403</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.6563893050853042</v>
+        <v>0.6563893050853041</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.4934679592659121</v>
+        <v>0.4740862186333339</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.819496323437534</v>
+        <v>0.8036137073904356</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>65</v>
@@ -13406,19 +13406,19 @@
         <v>38130</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>31320</v>
+        <v>32367</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>43120</v>
+        <v>43790</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.6694236587094288</v>
+        <v>0.669423658709429</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.5498598938463268</v>
+        <v>0.5682438461175571</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.7570238285913614</v>
+        <v>0.7687926804863899</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>90</v>
@@ -13427,19 +13427,19 @@
         <v>64597</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>54811</v>
+        <v>55625</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>73236</v>
+        <v>72613</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.6640211912005234</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.5634316855141435</v>
+        <v>0.5718013344683919</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.7528325488745443</v>
+        <v>0.7464259240669149</v>
       </c>
     </row>
     <row r="35">
@@ -13456,19 +13456,19 @@
         <v>9920</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>4631</v>
+        <v>5119</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>16342</v>
+        <v>16774</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.2460345030826365</v>
+        <v>0.2460345030826364</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1148508399933119</v>
+        <v>0.1269518581906253</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.4053042924557472</v>
+        <v>0.4160174909224248</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>15</v>
@@ -13477,19 +13477,19 @@
         <v>8560</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>5183</v>
+        <v>5325</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>14487</v>
+        <v>13788</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1502835765905875</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.09098493297385452</v>
+        <v>0.09348750925710965</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2543294939939031</v>
+        <v>0.2420666225603327</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>27</v>
@@ -13498,19 +13498,19 @@
         <v>18481</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>12502</v>
+        <v>12289</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>26776</v>
+        <v>25936</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1899703369960629</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1285158738548846</v>
+        <v>0.1263198322780002</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2752424000160771</v>
+        <v>0.2666070938686255</v>
       </c>
     </row>
     <row r="36">
@@ -13543,7 +13543,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>4443</v>
+        <v>3820</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.02191833499558808</v>
@@ -13552,7 +13552,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.07799521436190493</v>
+        <v>0.06705702014764377</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>2</v>
@@ -13564,7 +13564,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>4557</v>
+        <v>4277</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.01283364264507505</v>
@@ -13573,7 +13573,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.04684253757786765</v>
+        <v>0.0439691217956796</v>
       </c>
     </row>
     <row r="37">
@@ -13725,19 +13725,19 @@
         <v>4939</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>2105</v>
+        <v>2283</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>8868</v>
+        <v>9436</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.1003879910302353</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.04278204756811665</v>
+        <v>0.04641081585307377</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.1802462719932374</v>
+        <v>0.1917940670592426</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>8</v>
@@ -13746,19 +13746,19 @@
         <v>4939</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>2227</v>
+        <v>2321</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>9448</v>
+        <v>9351</v>
       </c>
       <c r="U39" s="6" t="n">
-        <v>0.08174318443643461</v>
+        <v>0.08174318443643462</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.03686169894220333</v>
+        <v>0.03842186831397464</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.1563666294609473</v>
+        <v>0.154769122604016</v>
       </c>
     </row>
     <row r="40">
@@ -13775,19 +13775,19 @@
         <v>7028</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1948</v>
+        <v>2264</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>10630</v>
+        <v>10717</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.6262455752485192</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1736010456038868</v>
+        <v>0.20170553720506</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.9472387180965446</v>
+        <v>0.9549696558622865</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>5</v>
@@ -13796,19 +13796,19 @@
         <v>5710</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1376</v>
+        <v>1423</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>14647</v>
+        <v>15600</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.1160563277398789</v>
+        <v>0.116056327739879</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.02797016780377904</v>
+        <v>0.0289255647124654</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2977201661070849</v>
+        <v>0.3170905631362492</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>8</v>
@@ -13817,19 +13817,19 @@
         <v>12737</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>5224</v>
+        <v>5602</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>23920</v>
+        <v>24745</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.2108124808256631</v>
+        <v>0.2108124808256632</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.08646194200796226</v>
+        <v>0.09272391332342377</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.3958993668658321</v>
+        <v>0.4095495395503977</v>
       </c>
     </row>
     <row r="41">
@@ -13849,7 +13849,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>7859</v>
+        <v>7151</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.209726970817749</v>
@@ -13858,7 +13858,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.7003381429663327</v>
+        <v>0.6371989346186349</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>46</v>
@@ -13867,19 +13867,19 @@
         <v>28562</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>21106</v>
+        <v>21500</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>34516</v>
+        <v>34085</v>
       </c>
       <c r="N41" s="6" t="n">
-        <v>0.5805451754944625</v>
+        <v>0.5805451754944627</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.4290064521236073</v>
+        <v>0.4370143863349015</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.7015687824957754</v>
+        <v>0.6928160854102821</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>48</v>
@@ -13888,19 +13888,19 @@
         <v>30915</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>22829</v>
+        <v>22492</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>38970</v>
+        <v>39174</v>
       </c>
       <c r="U41" s="6" t="n">
-        <v>0.511674052198695</v>
+        <v>0.5116740521986951</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.3778345015680704</v>
+        <v>0.3722686903457472</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.6449895750002819</v>
+        <v>0.6483580435983272</v>
       </c>
     </row>
     <row r="42">
@@ -13920,7 +13920,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>7757</v>
+        <v>7753</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1640274539337318</v>
@@ -13929,7 +13929,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.6912133451521958</v>
+        <v>0.6908813650651986</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>16</v>
@@ -13938,19 +13938,19 @@
         <v>9379</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>5250</v>
+        <v>5339</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>15049</v>
+        <v>14531</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1906295249095187</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1067201941285779</v>
+        <v>0.1085271568039931</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3058887476521948</v>
+        <v>0.2953617493249786</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>17</v>
@@ -13959,19 +13959,19 @@
         <v>11219</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>6891</v>
+        <v>6520</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>18900</v>
+        <v>18357</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1856887898350542</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1140548590988254</v>
+        <v>0.1079168967609798</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3128065215807185</v>
+        <v>0.3038257806039654</v>
       </c>
     </row>
     <row r="43">
@@ -14051,7 +14051,7 @@
         <v>0</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>2560</v>
+        <v>2725</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.01238098082590458</v>
@@ -14060,7 +14060,7 @@
         <v>0</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.05203672988588536</v>
+        <v>0.0553835385272269</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>1</v>
@@ -14072,16 +14072,16 @@
         <v>0</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>3432</v>
+        <v>2982</v>
       </c>
       <c r="U44" s="6" t="n">
-        <v>0.01008149270415284</v>
+        <v>0.01008149270415285</v>
       </c>
       <c r="V44" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.05680957472719888</v>
+        <v>0.04934710906541123</v>
       </c>
     </row>
     <row r="45">
@@ -14173,19 +14173,19 @@
         <v>29047</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>18659</v>
+        <v>18584</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>45500</v>
+        <v>44247</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.1331267811729872</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.08551577428627986</v>
+        <v>0.08517330372248721</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.208529908580266</v>
+        <v>0.2027898260356572</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>30</v>
@@ -14194,19 +14194,19 @@
         <v>20081</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>13894</v>
+        <v>13837</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>28697</v>
+        <v>27654</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.0890857991385693</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.06163997483157237</v>
+        <v>0.06138564862634724</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.1273100334292116</v>
+        <v>0.1226841565655424</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>53</v>
@@ -14215,19 +14215,19 @@
         <v>49128</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>36873</v>
+        <v>35585</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>67914</v>
+        <v>65526</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.1107479243298987</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.08312197331007756</v>
+        <v>0.08021801916288947</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.1530961781252391</v>
+        <v>0.1477132049754063</v>
       </c>
     </row>
     <row r="47">
@@ -14244,19 +14244,19 @@
         <v>19487</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>10858</v>
+        <v>10418</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>32830</v>
+        <v>32511</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.08931349303522639</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.04976253637795802</v>
+        <v>0.04774658884218996</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.1504646016202518</v>
+        <v>0.1490007861374777</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>15</v>
@@ -14265,19 +14265,19 @@
         <v>11617</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>6148</v>
+        <v>5637</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>23189</v>
+        <v>23269</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.0515373006725233</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.02727381631967853</v>
+        <v>0.0250077696781525</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.1028754918424183</v>
+        <v>0.1032303488002111</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>30</v>
@@ -14286,19 +14286,19 @@
         <v>31105</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>20580</v>
+        <v>20737</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>47043</v>
+        <v>47836</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.07011800824105816</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.04639340585112799</v>
+        <v>0.04674579370884178</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.1060481058667758</v>
+        <v>0.1078348105822562</v>
       </c>
     </row>
     <row r="48">
@@ -14315,19 +14315,19 @@
         <v>114733</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>96791</v>
+        <v>97986</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>129898</v>
+        <v>131203</v>
       </c>
       <c r="G48" s="6" t="n">
-        <v>0.5258341698418848</v>
+        <v>0.5258341698418849</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.4436062390485641</v>
+        <v>0.4490801182974155</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.5953364515160686</v>
+        <v>0.601318739077856</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>222</v>
@@ -14336,19 +14336,19 @@
         <v>140911</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>128073</v>
+        <v>128044</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>153364</v>
+        <v>153788</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.6251276486768477</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.5681744110587487</v>
+        <v>0.5680429818456341</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.6803720472258914</v>
+        <v>0.6822521780847333</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>336</v>
@@ -14357,19 +14357,19 @@
         <v>255644</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>234817</v>
+        <v>236292</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>275363</v>
+        <v>277880</v>
       </c>
       <c r="U48" s="6" t="n">
-        <v>0.5762888701154467</v>
+        <v>0.5762888701154465</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.5293382405565823</v>
+        <v>0.532663772318511</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.6207394460695672</v>
+        <v>0.6264153424998364</v>
       </c>
     </row>
     <row r="49">
@@ -14386,19 +14386,19 @@
         <v>48646</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>37042</v>
+        <v>36379</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>61544</v>
+        <v>62116</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.2229526951381667</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.1697679329162116</v>
+        <v>0.1667283751335808</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.2820645619465377</v>
+        <v>0.2846859124598911</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>76</v>
@@ -14407,19 +14407,19 @@
         <v>46556</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>36914</v>
+        <v>37440</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>56593</v>
+        <v>58445</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.2065390270158372</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.1637610598821231</v>
+        <v>0.166095839349495</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.2510641319522136</v>
+        <v>0.2592813808877021</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>128</v>
@@ -14428,19 +14428,19 @@
         <v>95203</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>80742</v>
+        <v>78936</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>112086</v>
+        <v>111363</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.2146123014363978</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.1820127776281603</v>
+        <v>0.1779422482561845</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.2526721893734504</v>
+        <v>0.2510420194275965</v>
       </c>
     </row>
     <row r="50">
@@ -14457,19 +14457,19 @@
         <v>4866</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>1338</v>
+        <v>1299</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>12274</v>
+        <v>12247</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.02229921767139188</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.006131032486045056</v>
+        <v>0.005952264000039982</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.05625401516195026</v>
+        <v>0.05612740664273892</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>7</v>
@@ -14478,19 +14478,19 @@
         <v>5637</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>2558</v>
+        <v>2139</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>12221</v>
+        <v>11723</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.02500794866785749</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.01134926290587838</v>
+        <v>0.009488089323205377</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.0542160882543293</v>
+        <v>0.05200769651810894</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>11</v>
@@ -14499,19 +14499,19 @@
         <v>10503</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>5538</v>
+        <v>5618</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>18580</v>
+        <v>19344</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.02367562438160028</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.01248328168869309</v>
+        <v>0.01266425327859735</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.04188456025036749</v>
+        <v>0.04360701326239828</v>
       </c>
     </row>
     <row r="51">
@@ -14531,7 +14531,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>7154</v>
+        <v>6672</v>
       </c>
       <c r="G51" s="6" t="n">
         <v>0.006473643140342994</v>
@@ -14540,7 +14540,7 @@
         <v>0</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.0327888141630729</v>
+        <v>0.03057711184027509</v>
       </c>
       <c r="J51" s="5" t="n">
         <v>1</v>
@@ -14552,7 +14552,7 @@
         <v>0</v>
       </c>
       <c r="M51" s="5" t="n">
-        <v>3103</v>
+        <v>3131</v>
       </c>
       <c r="N51" s="6" t="n">
         <v>0.002702275828364905</v>
@@ -14561,7 +14561,7 @@
         <v>0</v>
       </c>
       <c r="P51" s="6" t="n">
-        <v>0.01376476754403757</v>
+        <v>0.01388920815669556</v>
       </c>
       <c r="Q51" s="5" t="n">
         <v>2</v>
@@ -14573,16 +14573,16 @@
         <v>0</v>
       </c>
       <c r="T51" s="5" t="n">
-        <v>7738</v>
+        <v>8294</v>
       </c>
       <c r="U51" s="6" t="n">
-        <v>0.00455727149559848</v>
+        <v>0.004557271495598479</v>
       </c>
       <c r="V51" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W51" s="6" t="n">
-        <v>0.017444186675535</v>
+        <v>0.01869781478381868</v>
       </c>
     </row>
     <row r="52">
